--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="509">
   <si>
     <t>Ticker</t>
   </si>
@@ -1547,7 +1547,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$0.00"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,14 +1561,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1612,12 +1607,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1919,10 +1913,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1931,7 +1928,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1939,13 +1936,13 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>138.5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>40610790836</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>142</v>
       </c>
     </row>
@@ -1953,13 +1950,13 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>22.24</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>14341202227</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>890</v>
       </c>
     </row>
@@ -1967,13 +1964,13 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>202.15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>13367157092</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>97</v>
       </c>
     </row>
@@ -1981,13 +1978,13 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>137.82</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2223258711128</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>143</v>
       </c>
     </row>
@@ -1995,13 +1992,13 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>119.67</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>202439347808</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>165</v>
       </c>
     </row>
@@ -2009,13 +2006,13 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>124.82</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>25527349869</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>158</v>
       </c>
     </row>
@@ -2023,13 +2020,13 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>310.54</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>14129850136</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>63</v>
       </c>
     </row>
@@ -2037,13 +2034,13 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>122.1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>221315231163</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>162</v>
       </c>
     </row>
@@ -2051,13 +2048,13 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>300.27</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>200494283752</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>65</v>
       </c>
     </row>
@@ -2065,13 +2062,13 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>519.13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>248568950195</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>38</v>
       </c>
     </row>
@@ -2079,13 +2076,13 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>151.37</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>57918805495</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>130</v>
       </c>
     </row>
@@ -2093,13 +2090,13 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>66.12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>36488513355</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>299</v>
       </c>
     </row>
@@ -2107,13 +2104,13 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>196.83</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>83616827789</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2121,13 +2118,13 @@
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>300.4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>63762295396</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>65</v>
       </c>
     </row>
@@ -2135,13 +2132,13 @@
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>85.95</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>22767230659</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>230</v>
       </c>
     </row>
@@ -2149,13 +2146,13 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>90.73999999999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>45959248950</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>218</v>
       </c>
     </row>
@@ -2163,13 +2160,13 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>27.9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>18941700916</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>709</v>
       </c>
     </row>
@@ -2177,13 +2174,13 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>54.96</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>38206600740</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>360</v>
       </c>
     </row>
@@ -2191,13 +2188,13 @@
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>50.06</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>43464508474</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>395</v>
       </c>
     </row>
@@ -2205,13 +2202,13 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7.12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1050955876</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>2781</v>
       </c>
     </row>
@@ -2219,13 +2216,13 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>160.56</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>9486847245</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>123</v>
       </c>
     </row>
@@ -2233,13 +2230,13 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>145.24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>28661447086</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>136</v>
       </c>
     </row>
@@ -2247,13 +2244,13 @@
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>108.74</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>17916533424</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>182</v>
       </c>
     </row>
@@ -2261,13 +2258,13 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>171.51</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>19754024185</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>115</v>
       </c>
     </row>
@@ -2275,13 +2272,13 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>617.7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>49386225141</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>32</v>
       </c>
     </row>
@@ -2289,13 +2286,13 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>71.97</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>8598226247</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>275</v>
       </c>
     </row>
@@ -2303,13 +2300,13 @@
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>131.83</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>38557254235</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>150</v>
       </c>
     </row>
@@ -2317,13 +2314,13 @@
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>136.24</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>12516925659</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>145</v>
       </c>
     </row>
@@ -2331,13 +2328,13 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>171.35</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>37803548552</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>115</v>
       </c>
     </row>
@@ -2345,13 +2342,13 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>135.56</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>124795492462</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>146</v>
       </c>
     </row>
@@ -2359,13 +2356,13 @@
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>12.25</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>18922844072</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1616</v>
       </c>
     </row>
@@ -2373,13 +2370,13 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>79.54000000000001</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>98741041677</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>248</v>
       </c>
     </row>
@@ -2387,13 +2384,13 @@
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>138.5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>32422428920</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>142</v>
       </c>
     </row>
@@ -2401,13 +2398,13 @@
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>245.4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>145450810677</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>80</v>
       </c>
     </row>
@@ -2415,13 +2412,13 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>258.74</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>31372105596</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>76</v>
       </c>
     </row>
@@ -2429,13 +2426,13 @@
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>260.18</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>116290408415</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>76</v>
       </c>
     </row>
@@ -2443,13 +2440,13 @@
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>3455.05</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1765804812978</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2457,13 +2454,13 @@
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>320.02</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>24605765475</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>61</v>
       </c>
     </row>
@@ -2471,13 +2468,13 @@
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>371.08</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>31742084644</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>53</v>
       </c>
     </row>
@@ -2485,13 +2482,13 @@
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>399.86</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>99192468639</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>49</v>
       </c>
     </row>
@@ -2499,13 +2496,13 @@
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>264.05</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>58410464568</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>74</v>
       </c>
     </row>
@@ -2513,13 +2510,13 @@
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>72.37</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>11870136505</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>273</v>
       </c>
     </row>
@@ -2527,13 +2524,13 @@
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>21.1</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>7827132565</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>938</v>
       </c>
     </row>
@@ -2541,13 +2538,13 @@
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>297.19</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>66136367074</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>66</v>
       </c>
     </row>
@@ -2555,13 +2552,13 @@
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>68.66</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>40929277365</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>288</v>
       </c>
     </row>
@@ -2569,13 +2566,13 @@
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>145.85</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>39176418054</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>135</v>
       </c>
     </row>
@@ -2583,13 +2580,13 @@
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>180.23</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>27019465168</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>109</v>
       </c>
     </row>
@@ -2597,13 +2594,13 @@
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>108.46</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>13697192369</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>182</v>
       </c>
     </row>
@@ -2611,13 +2608,13 @@
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>95.26000000000001</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>72977200697</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>207</v>
       </c>
     </row>
@@ -2625,13 +2622,13 @@
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>196.05</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>27806980504</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>101</v>
       </c>
     </row>
@@ -2639,13 +2636,13 @@
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>471.73</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>191878265813</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>41</v>
       </c>
     </row>
@@ -2653,13 +2650,13 @@
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>220.48</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>17963637295</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>89</v>
       </c>
     </row>
@@ -2667,13 +2664,13 @@
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>156.5</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>29442693921</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>126</v>
       </c>
     </row>
@@ -2681,13 +2678,13 @@
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>160.7</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>125723634344</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>123</v>
       </c>
     </row>
@@ -2695,13 +2692,13 @@
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>1526.85</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>33164945131</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>12</v>
       </c>
     </row>
@@ -2709,13 +2706,13 @@
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>236.36</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>141526356448</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>83</v>
       </c>
     </row>
@@ -2723,13 +2720,13 @@
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>42.48</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>357225522735</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>466</v>
       </c>
     </row>
@@ -2737,13 +2734,13 @@
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>88.98999999999999</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>43576929563</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>222</v>
       </c>
     </row>
@@ -2751,13 +2748,13 @@
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>118.37</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>30166200678</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>167</v>
       </c>
     </row>
@@ -2765,13 +2762,13 @@
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>256.24</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>74635353463</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>77</v>
       </c>
     </row>
@@ -2779,13 +2776,13 @@
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>31.68</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>15469580979</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>625</v>
       </c>
     </row>
@@ -2793,13 +2790,13 @@
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>77.87</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>37361917903</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>254</v>
       </c>
     </row>
@@ -2807,13 +2804,13 @@
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>277.27</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>42994707436</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>71</v>
       </c>
     </row>
@@ -2821,13 +2818,13 @@
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>638</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>18583736424</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>31</v>
       </c>
     </row>
@@ -2835,13 +2832,13 @@
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>52.65</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>46138314463</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>376</v>
       </c>
     </row>
@@ -2849,13 +2846,13 @@
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>2557.33</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>101107810116</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>7</v>
       </c>
     </row>
@@ -2863,13 +2860,13 @@
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>22.05</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>22945131149</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>898</v>
       </c>
     </row>
@@ -2877,13 +2874,13 @@
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>844.8200000000001</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>129701278800</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>23</v>
       </c>
     </row>
@@ -2891,13 +2888,13 @@
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>94.98999999999999</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>31447653366</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>208</v>
       </c>
     </row>
@@ -2905,13 +2902,13 @@
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>66.42</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>144136502375</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>298</v>
       </c>
     </row>
@@ -2919,13 +2916,13 @@
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>167.24</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>18585847395</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>118</v>
       </c>
     </row>
@@ -2933,13 +2930,13 @@
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>289.86</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>658207953767</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>68</v>
       </c>
     </row>
@@ -2947,13 +2944,13 @@
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>45.09</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>64486615867</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>439</v>
       </c>
     </row>
@@ -2961,13 +2958,13 @@
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>51.38</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>12012965604</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>385</v>
       </c>
     </row>
@@ -2975,13 +2972,13 @@
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>110.84</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>17214811860</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>178</v>
       </c>
     </row>
@@ -2989,13 +2986,13 @@
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>74.81</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>152416013882</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>264</v>
       </c>
     </row>
@@ -3003,13 +3000,13 @@
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>39.3</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>18825170834</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>503</v>
       </c>
     </row>
@@ -3017,13 +3014,13 @@
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>62.26</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>18503930009</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>318</v>
       </c>
     </row>
@@ -3031,13 +3028,13 @@
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>45.36</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>39181206012</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>436</v>
       </c>
     </row>
@@ -3045,13 +3042,13 @@
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>234.16</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>128031134766</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>84</v>
       </c>
     </row>
@@ -3059,13 +3056,13 @@
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>177.89</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>79852442278</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>111</v>
       </c>
     </row>
@@ -3073,13 +3070,13 @@
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>111.43</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>11414530456</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>177</v>
       </c>
     </row>
@@ -3087,13 +3084,13 @@
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>88.11</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>29947211571</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>224</v>
       </c>
     </row>
@@ -3101,13 +3098,13 @@
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>188</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>84146270009</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>105</v>
       </c>
     </row>
@@ -3115,13 +3112,13 @@
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>28.1</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>31063291955</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>704</v>
       </c>
     </row>
@@ -3129,13 +3126,13 @@
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>130.2</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>36825066674</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>152</v>
       </c>
     </row>
@@ -3143,13 +3140,13 @@
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>186.3</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>25947617426</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>106</v>
       </c>
     </row>
@@ -3157,13 +3154,13 @@
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>162.8</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>18641711427</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>121</v>
       </c>
     </row>
@@ -3171,13 +3168,13 @@
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>78.59999999999999</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>23583245061</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>251</v>
       </c>
     </row>
@@ -3185,13 +3182,13 @@
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>51.84</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>10929351899</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>381</v>
       </c>
     </row>
@@ -3199,13 +3196,13 @@
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>48.92</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>20596031374</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>404</v>
       </c>
     </row>
@@ -3213,13 +3210,13 @@
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>89.48</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>21773320452</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>221</v>
       </c>
     </row>
@@ -3227,13 +3224,13 @@
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>103.81</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>13510339267</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>190</v>
       </c>
     </row>
@@ -3241,13 +3238,13 @@
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>699.25</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>129261282203</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>28</v>
       </c>
     </row>
@@ -3255,13 +3252,13 @@
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>261.3</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>91762342018</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>75</v>
       </c>
     </row>
@@ -3269,13 +3266,13 @@
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>116.8</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>19123763728</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>169</v>
       </c>
     </row>
@@ -3283,13 +3280,13 @@
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>84.16</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>68741727922</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>235</v>
       </c>
     </row>
@@ -3297,13 +3294,13 @@
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>182.85</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>23224663194</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>108</v>
       </c>
     </row>
@@ -3311,13 +3308,13 @@
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>76.58</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>10879098963</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>258</v>
       </c>
     </row>
@@ -3325,13 +3322,13 @@
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>58.77</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>271003428461</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>336</v>
       </c>
     </row>
@@ -3339,13 +3336,13 @@
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>212.7</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>75387146675</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>93</v>
       </c>
     </row>
@@ -3353,13 +3350,13 @@
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>1541.9</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>42570156923</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>12</v>
       </c>
     </row>
@@ -3367,13 +3364,13 @@
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>256.53</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>37325532699</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>77</v>
       </c>
     </row>
@@ -3381,13 +3378,13 @@
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>65.65000000000001</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>18938867331</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>301</v>
       </c>
     </row>
@@ -3395,13 +3392,13 @@
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>63.3</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>37192203204</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>312</v>
       </c>
     </row>
@@ -3409,13 +3406,13 @@
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>25.31</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>13700755128</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>782</v>
       </c>
     </row>
@@ -3423,13 +3420,13 @@
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>153.26</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>69662265289</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>129</v>
       </c>
     </row>
@@ -3437,13 +3434,13 @@
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>17.19</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>6865999678</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>1151</v>
       </c>
     </row>
@@ -3451,13 +3448,13 @@
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>418.52</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>22267044789</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>47</v>
       </c>
     </row>
@@ -3465,13 +3462,13 @@
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>54.72</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>71780528727</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>361</v>
       </c>
     </row>
@@ -3479,13 +3476,13 @@
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>380.75</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>171281394866</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>52</v>
       </c>
     </row>
@@ -3493,13 +3490,13 @@
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>10.49</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>8142854159</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>1887</v>
       </c>
     </row>
@@ -3507,13 +3504,13 @@
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>50.7</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>14771528312</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>390</v>
       </c>
     </row>
@@ -3521,13 +3518,13 @@
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>130.3</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>29416413918</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>151</v>
       </c>
     </row>
@@ -3535,13 +3532,13 @@
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>225.32</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>209120741157</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>87</v>
       </c>
     </row>
@@ -3549,13 +3546,13 @@
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>52.57</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>221185278053</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>376</v>
       </c>
     </row>
@@ -3563,13 +3560,13 @@
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>104.18</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>79529333603</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>190</v>
       </c>
     </row>
@@ -3577,13 +3574,13 @@
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>359.4</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>38181461312</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>55</v>
       </c>
     </row>
@@ -3591,13 +3588,13 @@
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>11</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>12227031186</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>1800</v>
       </c>
     </row>
@@ -3605,13 +3602,13 @@
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>83.2</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>44232730203</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>238</v>
       </c>
     </row>
@@ -3619,13 +3616,13 @@
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>50.92</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>38413652333</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>388</v>
       </c>
     </row>
@@ -3633,13 +3630,13 @@
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>125.8</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>15729777701</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>157</v>
       </c>
     </row>
@@ -3647,13 +3644,13 @@
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>80.13</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>102676184418</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>247</v>
       </c>
     </row>
@@ -3661,13 +3658,13 @@
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>108.54</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>208903147247</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>182</v>
       </c>
     </row>
@@ -3675,13 +3672,13 @@
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>66.2</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>13043183171</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>299</v>
       </c>
     </row>
@@ -3689,13 +3686,13 @@
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>81.03</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>66979603381</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>244</v>
       </c>
     </row>
@@ -3703,13 +3700,13 @@
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>47.76</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>29807107083</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>414</v>
       </c>
     </row>
@@ -3717,13 +3714,13 @@
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>78.41</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>43421586558</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>252</v>
       </c>
     </row>
@@ -3731,13 +3728,13 @@
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>390.59</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>118042739829</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>50</v>
       </c>
     </row>
@@ -3745,13 +3742,13 @@
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>118.67</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>36505813908</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>166</v>
       </c>
     </row>
@@ -3759,13 +3756,13 @@
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>217.19</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>53890277836</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>91</v>
       </c>
     </row>
@@ -3773,13 +3770,13 @@
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>138.56</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>18087051320</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>142</v>
       </c>
     </row>
@@ -3787,13 +3784,13 @@
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>104.05</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>37728022378</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>190</v>
       </c>
     </row>
@@ -3801,13 +3798,13 @@
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>265.9</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>183596164436</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>74</v>
       </c>
     </row>
@@ -3815,13 +3812,13 @@
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>191.07</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>352325977154</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>103</v>
       </c>
     </row>
@@ -3829,13 +3826,13 @@
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>37.39</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>17629237636</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>529</v>
       </c>
     </row>
@@ -3843,13 +3840,13 @@
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>32.17</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>17682031023</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>615</v>
       </c>
     </row>
@@ -3857,13 +3854,13 @@
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>44.62</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>23426720555</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>443</v>
       </c>
     </row>
@@ -3871,13 +3868,13 @@
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>156.22</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>42978673945</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>126</v>
       </c>
     </row>
@@ -3885,13 +3882,13 @@
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>119.01</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>27678123987</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>166</v>
       </c>
     </row>
@@ -3899,13 +3896,13 @@
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>156.09</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>21611147608</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>126</v>
       </c>
     </row>
@@ -3913,13 +3910,13 @@
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>66.79000000000001</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>49075352748</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>296</v>
       </c>
     </row>
@@ -3927,13 +3924,13 @@
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>434.93</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>17104882786</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>45</v>
       </c>
     </row>
@@ -3941,13 +3938,13 @@
       <c r="A145" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>46.77</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>17846768282</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>423</v>
       </c>
     </row>
@@ -3955,13 +3952,13 @@
       <c r="A146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>146.2</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>19506581448</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>135</v>
       </c>
     </row>
@@ -3969,13 +3966,13 @@
       <c r="A147" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>140.61</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>27804534806</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>140</v>
       </c>
     </row>
@@ -3983,13 +3980,13 @@
       <c r="A148" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>101.19</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>78322680635</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>195</v>
       </c>
     </row>
@@ -3997,13 +3994,13 @@
       <c r="A149" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>123.59</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>13220358571</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>160</v>
       </c>
     </row>
@@ -4011,13 +4008,13 @@
       <c r="A150" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>24.03</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>16606135186</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>824</v>
       </c>
     </row>
@@ -4025,13 +4022,13 @@
       <c r="A151" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>34.05</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>8759113161</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>581</v>
       </c>
     </row>
@@ -4039,13 +4036,13 @@
       <c r="A152" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>380.79</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>36885050345</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>52</v>
       </c>
     </row>
@@ -4053,13 +4050,13 @@
       <c r="A153" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>146.54</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>40899072853</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>135</v>
       </c>
     </row>
@@ -4067,13 +4064,13 @@
       <c r="A154" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>58.74</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>39903896763</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>337</v>
       </c>
     </row>
@@ -4081,13 +4078,13 @@
       <c r="A155" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>232.98</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>68074100208</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>84</v>
       </c>
     </row>
@@ -4095,13 +4092,13 @@
       <c r="A156" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>80.11</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>27619713525</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>247</v>
       </c>
     </row>
@@ -4109,13 +4106,13 @@
       <c r="A157" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>234.84</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>28655294227</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>84</v>
       </c>
     </row>
@@ -4123,13 +4120,13 @@
       <c r="A158" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>61.57</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>23530411014</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>321</v>
       </c>
     </row>
@@ -4137,13 +4134,13 @@
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>303.18</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>105487485330</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>65</v>
       </c>
     </row>
@@ -4151,13 +4148,13 @@
       <c r="A160" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>118.48</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>16288195043</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>167</v>
       </c>
     </row>
@@ -4165,13 +4162,13 @@
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>92.22</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>54738742892</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>214</v>
       </c>
     </row>
@@ -4179,13 +4176,13 @@
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>76.43000000000001</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>45631615457</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>259</v>
       </c>
     </row>
@@ -4193,13 +4190,13 @@
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>713.04</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>65384787934</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>27</v>
       </c>
     </row>
@@ -4207,13 +4204,13 @@
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>76.7</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>28099400974</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>258</v>
       </c>
     </row>
@@ -4221,13 +4218,13 @@
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>89.31</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>30120587099</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>221</v>
       </c>
     </row>
@@ -4235,13 +4232,13 @@
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>300.13</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>19007032992</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>65</v>
       </c>
     </row>
@@ -4249,13 +4246,13 @@
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>49.4</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>11128993882</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>400</v>
       </c>
     </row>
@@ -4263,13 +4260,13 @@
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>149.29</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>60346113060</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>132</v>
       </c>
     </row>
@@ -4277,13 +4274,13 @@
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>114.13</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>22896790727</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>173</v>
       </c>
     </row>
@@ -4291,13 +4288,13 @@
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>65.12</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>14593371179</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>304</v>
       </c>
     </row>
@@ -4305,13 +4302,13 @@
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>97.08</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>59788786288</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>203</v>
       </c>
     </row>
@@ -4319,13 +4316,13 @@
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>45.83</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>44411400606</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>432</v>
       </c>
     </row>
@@ -4333,13 +4330,13 @@
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>115.35</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>19539196979</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>171</v>
       </c>
     </row>
@@ -4347,13 +4344,13 @@
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>180.91</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>25468921556</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>109</v>
       </c>
     </row>
@@ -4361,13 +4358,13 @@
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>148.49</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>20102416149</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>133</v>
       </c>
     </row>
@@ -4375,13 +4372,13 @@
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>12.11</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>46056896404</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>1635</v>
       </c>
     </row>
@@ -4389,13 +4386,13 @@
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>84.72</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>15455087278</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>233</v>
       </c>
     </row>
@@ -4403,13 +4400,13 @@
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>54</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>30544014682</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>366</v>
       </c>
     </row>
@@ -4417,13 +4414,13 @@
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>324.71</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>941318140542</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>60</v>
       </c>
     </row>
@@ -4431,13 +4428,13 @@
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>110.3</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>15509828321</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>179</v>
       </c>
     </row>
@@ -4445,13 +4442,13 @@
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>39.89</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>59030170585</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>496</v>
       </c>
     </row>
@@ -4459,13 +4456,13 @@
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>317.37</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>81344621411</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>62</v>
       </c>
     </row>
@@ -4473,13 +4470,13 @@
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>40.14</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>21483857949</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>493</v>
       </c>
     </row>
@@ -4487,13 +4484,13 @@
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>184.2</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>11330771827</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>107</v>
       </c>
     </row>
@@ -4501,13 +4498,13 @@
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>156.11</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>96408343467</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>126</v>
       </c>
     </row>
@@ -4515,13 +4512,13 @@
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>122.21</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>83287316073</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>162</v>
       </c>
     </row>
@@ -4529,13 +4526,13 @@
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>41.1</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>29036641072</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>481</v>
       </c>
     </row>
@@ -4543,13 +4540,13 @@
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>61.02</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>8035151910</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>324</v>
       </c>
     </row>
@@ -4557,13 +4554,13 @@
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>42.3</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>5391809956</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>468</v>
       </c>
     </row>
@@ -4571,13 +4568,13 @@
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>299.78</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>25135219137</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>66</v>
       </c>
     </row>
@@ -4585,13 +4582,13 @@
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>123.49</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>15693249917</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>160</v>
       </c>
     </row>
@@ -4599,13 +4596,13 @@
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>36.73</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>22117543893</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>539</v>
       </c>
     </row>
@@ -4613,13 +4610,13 @@
       <c r="A193" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>37.69</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>22135551962</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>525</v>
       </c>
     </row>
@@ -4627,13 +4624,13 @@
       <c r="A194" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>185.68</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>32437833356</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>106</v>
       </c>
     </row>
@@ -4641,13 +4638,13 @@
       <c r="A195" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>117.11</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>8951553201</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>169</v>
       </c>
     </row>
@@ -4655,13 +4652,13 @@
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>7.89</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>3549927020</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>2509</v>
       </c>
     </row>
@@ -4669,13 +4666,13 @@
       <c r="A197" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>211.77</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>33285854418</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>93</v>
       </c>
     </row>
@@ -4683,13 +4680,13 @@
       <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>71.95</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>25020759637</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>275</v>
       </c>
     </row>
@@ -4697,13 +4694,13 @@
       <c r="A199" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>197.9</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>56126884257</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>100</v>
       </c>
     </row>
@@ -4711,13 +4708,13 @@
       <c r="A200" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>13.59</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>122226611375</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>1457</v>
       </c>
     </row>
@@ -4725,13 +4722,13 @@
       <c r="A201" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>66.2</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>83821266038</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>299</v>
       </c>
     </row>
@@ -4739,13 +4736,13 @@
       <c r="A202" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>63.1</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>37827996263</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>313</v>
       </c>
     </row>
@@ -4753,13 +4750,13 @@
       <c r="A203" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>106.07</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>12255105904</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>186</v>
       </c>
     </row>
@@ -4767,13 +4764,13 @@
       <c r="A204" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>45.9</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>38191093057</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>431</v>
       </c>
     </row>
@@ -4781,13 +4778,13 @@
       <c r="A205" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>59.81</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>84249967100</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>331</v>
       </c>
     </row>
@@ -4795,13 +4792,13 @@
       <c r="A206" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>2505.66</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>1685384316621</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>7</v>
       </c>
     </row>
@@ -4809,13 +4806,13 @@
       <c r="A207" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>2429.89</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>1675811203759</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>8</v>
       </c>
     </row>
@@ -4823,13 +4820,13 @@
       <c r="A208" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>132.31</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>18566628797</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>149</v>
       </c>
     </row>
@@ -4837,13 +4834,13 @@
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>221.46</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>65392310962</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>89</v>
       </c>
     </row>
@@ -4851,13 +4848,13 @@
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>35.91</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>13734779020</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>551</v>
       </c>
     </row>
@@ -4865,13 +4862,13 @@
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>141.27</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>27011693049</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>140</v>
       </c>
     </row>
@@ -4879,13 +4876,13 @@
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>364.01</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>124088091894</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>54</v>
       </c>
     </row>
@@ -4893,13 +4890,13 @@
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>452.83</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>23527667105</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>43</v>
       </c>
     </row>
@@ -4907,13 +4904,13 @@
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>20.94</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>18446121003</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>945</v>
       </c>
     </row>
@@ -4921,13 +4918,13 @@
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>102.19</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>14249778409</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>193</v>
       </c>
     </row>
@@ -4935,13 +4932,13 @@
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>15.79</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>15944081919</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>1254</v>
       </c>
     </row>
@@ -4949,13 +4946,13 @@
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>21.83</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>7673038585</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>907</v>
       </c>
     </row>
@@ -4963,13 +4960,13 @@
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>209.99</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>71542864068</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>94</v>
       </c>
     </row>
@@ -4977,13 +4974,13 @@
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>333.45</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>369144450620</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>59</v>
       </c>
     </row>
@@ -4991,13 +4988,13 @@
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1">
         <v>80.5</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>24160369672</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>245</v>
       </c>
     </row>
@@ -5005,13 +5002,13 @@
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1">
         <v>38</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>6039309288</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>521</v>
       </c>
     </row>
@@ -5019,13 +5016,13 @@
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>67.55</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>24297519485</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>293</v>
       </c>
     </row>
@@ -5033,13 +5030,13 @@
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>218.77</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>8870570827</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>90</v>
       </c>
     </row>
@@ -5047,13 +5044,13 @@
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>132.52</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>36855900129</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>149</v>
       </c>
     </row>
@@ -5061,13 +5058,13 @@
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>67.29000000000001</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>17529276578</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>294</v>
       </c>
     </row>
@@ -5075,13 +5072,13 @@
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>232.5</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>158226610922</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>85</v>
       </c>
     </row>
@@ -5089,13 +5086,13 @@
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>16.37</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>21374676356</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>1209</v>
       </c>
     </row>
@@ -5103,13 +5100,13 @@
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>34.59</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>43015149964</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>572</v>
       </c>
     </row>
@@ -5117,13 +5114,13 @@
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>23.26</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>4217035014</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>851</v>
       </c>
     </row>
@@ -5131,13 +5128,13 @@
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>48.1</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>26433792818</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>411</v>
       </c>
     </row>
@@ -5145,13 +5142,13 @@
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>77.43000000000001</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>10630151933</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>255</v>
       </c>
     </row>
@@ -5159,13 +5156,13 @@
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>18.93</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>13117612767</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>1046</v>
       </c>
     </row>
@@ -5173,13 +5170,13 @@
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>169.83</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>36422059281</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>116</v>
       </c>
     </row>
@@ -5187,13 +5184,13 @@
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>465.1</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>60039554601</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>42</v>
       </c>
     </row>
@@ -5201,13 +5198,13 @@
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>33.5</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>14407636663</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>591</v>
       </c>
     </row>
@@ -5215,13 +5212,13 @@
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>147.03</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>135002701609</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>134</v>
       </c>
     </row>
@@ -5229,13 +5226,13 @@
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>115.58</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>67763526549</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>171</v>
       </c>
     </row>
@@ -5243,13 +5240,13 @@
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>552.37</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>47623023488</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>35</v>
       </c>
     </row>
@@ -5257,13 +5254,13 @@
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>223.6</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>17723121380</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>88</v>
       </c>
     </row>
@@ -5271,13 +5268,13 @@
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>148.93</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>36415515154</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>132</v>
       </c>
     </row>
@@ -5285,13 +5282,13 @@
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>392.9</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>58878219812</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>50</v>
       </c>
     </row>
@@ -5299,13 +5296,13 @@
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>87.52</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>19101649023</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>226</v>
       </c>
     </row>
@@ -5313,13 +5310,13 @@
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>113.2</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>47619678886</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>174</v>
       </c>
     </row>
@@ -5327,13 +5324,13 @@
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>58.55</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>233224733190</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>338</v>
       </c>
     </row>
@@ -5341,13 +5338,13 @@
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>411.6</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>116632037185</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>48</v>
       </c>
     </row>
@@ -5355,13 +5352,13 @@
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>59.6</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>23240173506</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>332</v>
       </c>
     </row>
@@ -5369,13 +5366,13 @@
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>32.39</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>13039375692</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>611</v>
       </c>
     </row>
@@ -5383,13 +5380,13 @@
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1">
         <v>213.71</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>11517859474</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>92</v>
       </c>
     </row>
@@ -5397,13 +5394,13 @@
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1">
         <v>239.15</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>46271574585</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>82</v>
       </c>
     </row>
@@ -5411,13 +5408,13 @@
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1">
         <v>49</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>20826554122</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>404</v>
       </c>
     </row>
@@ -5425,13 +5422,13 @@
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1">
         <v>41.5</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>12019165565</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>477</v>
       </c>
     </row>
@@ -5439,13 +5436,13 @@
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1">
         <v>887.53</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>103558248447</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>22</v>
       </c>
     </row>
@@ -5453,13 +5450,13 @@
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="1">
         <v>198.92</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>17416644736</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>99</v>
       </c>
     </row>
@@ -5467,13 +5464,13 @@
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="1">
         <v>235.54</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>75173685230</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <v>84</v>
       </c>
     </row>
@@ -5481,13 +5478,13 @@
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="1">
         <v>28.38</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>13059662483</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>697</v>
       </c>
     </row>
@@ -5495,13 +5492,13 @@
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="1">
         <v>142</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>17681885384</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>139</v>
       </c>
     </row>
@@ -5509,13 +5506,13 @@
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="1">
         <v>177.3</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>18429729324</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>111</v>
       </c>
     </row>
@@ -5523,13 +5520,13 @@
       <c r="A258" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="1">
         <v>64.84</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>46366421451</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>305</v>
       </c>
     </row>
@@ -5537,13 +5534,13 @@
       <c r="A259" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="1">
         <v>172.11</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>12759131285</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <v>115</v>
       </c>
     </row>
@@ -5551,13 +5548,13 @@
       <c r="A260" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="1">
         <v>172.66</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>454756617472</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <v>114</v>
       </c>
     </row>
@@ -5565,13 +5562,13 @@
       <c r="A261" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>26.48</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>8507238160</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <v>747</v>
       </c>
     </row>
@@ -5579,13 +5576,13 @@
       <c r="A262" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="1">
         <v>158.4</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>485792010671</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <v>125</v>
       </c>
     </row>
@@ -5593,13 +5590,13 @@
       <c r="A263" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>65.06999999999999</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>21421203317</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <v>304</v>
       </c>
     </row>
@@ -5607,13 +5604,13 @@
       <c r="A264" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="1">
         <v>22</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>21403004272</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <v>900</v>
       </c>
     </row>
@@ -5621,13 +5618,13 @@
       <c r="A265" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="1">
         <v>146.2</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>27337083363</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <v>135</v>
       </c>
     </row>
@@ -5635,13 +5632,13 @@
       <c r="A266" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="1">
         <v>42.2</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>53880509028</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <v>469</v>
       </c>
     </row>
@@ -5649,13 +5646,13 @@
       <c r="A267" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="1">
         <v>21.56</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>9491550916</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <v>918</v>
       </c>
     </row>
@@ -5663,13 +5660,13 @@
       <c r="A268" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="1">
         <v>313.48</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>49893336271</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="1">
         <v>63</v>
       </c>
     </row>
@@ -5677,13 +5674,13 @@
       <c r="A269" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="1">
         <v>137.67</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>46292621660</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="1">
         <v>143</v>
       </c>
     </row>
@@ -5691,13 +5688,13 @@
       <c r="A270" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="1">
         <v>17.54</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>40063986062</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="1">
         <v>1128</v>
       </c>
     </row>
@@ -5705,13 +5702,13 @@
       <c r="A271" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="1">
         <v>140.76</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>22469227942</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="1">
         <v>140</v>
       </c>
     </row>
@@ -5719,13 +5716,13 @@
       <c r="A272" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="1">
         <v>54.98</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>235138249214</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="1">
         <v>360</v>
       </c>
     </row>
@@ -5733,13 +5730,13 @@
       <c r="A273" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="1">
         <v>39.24</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>28563085880</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="1">
         <v>504</v>
       </c>
     </row>
@@ -5747,13 +5744,13 @@
       <c r="A274" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="1">
         <v>64.17</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>10158910561</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="1">
         <v>308</v>
       </c>
     </row>
@@ -5761,13 +5758,13 @@
       <c r="A275" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="1">
         <v>306.3</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>27093158081</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="1">
         <v>64</v>
       </c>
     </row>
@@ -5775,13 +5772,13 @@
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="1">
         <v>59.82</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>15452678870</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="1">
         <v>331</v>
       </c>
     </row>
@@ -5789,13 +5786,13 @@
       <c r="A277" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="1">
         <v>70.56999999999999</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>18954097481</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="1">
         <v>280</v>
       </c>
     </row>
@@ -5803,13 +5800,13 @@
       <c r="A278" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="1">
         <v>104.3</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>14909125900</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="1">
         <v>189</v>
       </c>
     </row>
@@ -5817,13 +5814,13 @@
       <c r="A279" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="1">
         <v>52.9</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>6861129218</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="1">
         <v>374</v>
       </c>
     </row>
@@ -5831,13 +5828,13 @@
       <c r="A280" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="1">
         <v>110.03</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>32346357022</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="1">
         <v>179</v>
       </c>
     </row>
@@ -5845,13 +5842,13 @@
       <c r="A281" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="1">
         <v>273.49</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>26236421959</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="1">
         <v>72</v>
       </c>
     </row>
@@ -5859,13 +5856,13 @@
       <c r="A282" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="1">
         <v>215.42</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>45335721533</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="1">
         <v>91</v>
       </c>
     </row>
@@ -5873,13 +5870,13 @@
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="1">
         <v>294.8</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>154982572227</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="1">
         <v>67</v>
       </c>
     </row>
@@ -5887,13 +5884,13 @@
       <c r="A284" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="1">
         <v>48</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>14708742025</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="1">
         <v>412</v>
       </c>
     </row>
@@ -5901,13 +5898,13 @@
       <c r="A285" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="1">
         <v>192.85</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>186386319709</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="1">
         <v>102</v>
       </c>
     </row>
@@ -5915,13 +5912,13 @@
       <c r="A286" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="1">
         <v>398.99</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>112266584746</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="1">
         <v>49</v>
       </c>
     </row>
@@ -5929,13 +5926,13 @@
       <c r="A287" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="1">
         <v>64.83</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>12657728458</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="1">
         <v>305</v>
       </c>
     </row>
@@ -5943,13 +5940,13 @@
       <c r="A288" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="1">
         <v>56.33</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>14081971470</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="1">
         <v>351</v>
       </c>
     </row>
@@ -5957,13 +5954,13 @@
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="1">
         <v>203.4</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>143942459158</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="1">
         <v>97</v>
       </c>
     </row>
@@ -5971,13 +5968,13 @@
       <c r="A290" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="1">
         <v>631.8099999999999</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>91446456602</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="1">
         <v>31</v>
       </c>
     </row>
@@ -5985,13 +5982,13 @@
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="1">
         <v>64.23</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>37792019189</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="1">
         <v>308</v>
       </c>
     </row>
@@ -5999,13 +5996,13 @@
       <c r="A292" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="1">
         <v>62.66</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>48075047503</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="1">
         <v>316</v>
       </c>
     </row>
@@ -6013,13 +6010,13 @@
       <c r="A293" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="1">
         <v>82</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>11934919703</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="1">
         <v>241</v>
       </c>
     </row>
@@ -6027,13 +6024,13 @@
       <c r="A294" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="1">
         <v>110.17</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>36430948250</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="1">
         <v>179</v>
       </c>
     </row>
@@ -6041,13 +6038,13 @@
       <c r="A295" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="1">
         <v>85.22</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>18001901216</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="1">
         <v>232</v>
       </c>
     </row>
@@ -6055,13 +6052,13 @@
       <c r="A296" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="1">
         <v>393.1</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>387181834182</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="1">
         <v>50</v>
       </c>
     </row>
@@ -6069,13 +6066,13 @@
       <c r="A297" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="1">
         <v>160.85</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>18665492555</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="1">
         <v>123</v>
       </c>
     </row>
@@ -6083,13 +6080,13 @@
       <c r="A298" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="1">
         <v>156.12</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>48598856870</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="1">
         <v>126</v>
       </c>
     </row>
@@ -6097,13 +6094,13 @@
       <c r="A299" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="1">
         <v>65.92</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>17328604099</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="1">
         <v>300</v>
       </c>
     </row>
@@ -6111,13 +6108,13 @@
       <c r="A300" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="1">
         <v>239.67</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>182445119644</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="1">
         <v>82</v>
       </c>
     </row>
@@ -6125,13 +6122,13 @@
       <c r="A301" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="1">
         <v>153.48</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>40681884377</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="1">
         <v>129</v>
       </c>
     </row>
@@ -6139,13 +6136,13 @@
       <c r="A302" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="1">
         <v>194.39</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>31057301586</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="1">
         <v>101</v>
       </c>
     </row>
@@ -6153,13 +6150,13 @@
       <c r="A303" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="1">
         <v>340.99</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>61693476610</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="1">
         <v>58</v>
       </c>
     </row>
@@ -6167,13 +6164,13 @@
       <c r="A304" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="1">
         <v>63.57</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>89054945004</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="1">
         <v>311</v>
       </c>
     </row>
@@ -6181,13 +6178,13 @@
       <c r="A305" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="1">
         <v>136.4</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>178496376878</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="1">
         <v>145</v>
       </c>
     </row>
@@ -6195,13 +6192,13 @@
       <c r="A306" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="1">
         <v>67.23999999999999</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>56470460533</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="1">
         <v>294</v>
       </c>
     </row>
@@ -6209,13 +6206,13 @@
       <c r="A307" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="1">
         <v>41.37</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>20576551549</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="1">
         <v>478</v>
       </c>
     </row>
@@ -6223,13 +6220,13 @@
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="1">
         <v>228</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>16008634695</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="1">
         <v>86</v>
       </c>
     </row>
@@ -6237,13 +6234,13 @@
       <c r="A309" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="1">
         <v>93.8</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>24634168013</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="1">
         <v>211</v>
       </c>
     </row>
@@ -6251,13 +6248,13 @@
       <c r="A310" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="1">
         <v>511.36</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>19172821131</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="1">
         <v>38</v>
       </c>
     </row>
@@ -6265,13 +6262,13 @@
       <c r="A311" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="1">
         <v>358.97</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>22384645128</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="1">
         <v>55</v>
       </c>
     </row>
@@ -6279,13 +6276,13 @@
       <c r="A312" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="1">
         <v>140.8</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>71462566928</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="1">
         <v>140</v>
       </c>
     </row>
@@ -6293,13 +6290,13 @@
       <c r="A313" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="1">
         <v>205.61</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>116658987970</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="1">
         <v>96</v>
       </c>
     </row>
@@ -6307,13 +6304,13 @@
       <c r="A314" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="1">
         <v>98.97</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>52483326982</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="1">
         <v>200</v>
       </c>
     </row>
@@ -6321,13 +6318,13 @@
       <c r="A315" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="1">
         <v>49.69</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>93398168999</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="1">
         <v>398</v>
       </c>
     </row>
@@ -6335,13 +6332,13 @@
       <c r="A316" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>35.31</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>13523990623</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="1">
         <v>560</v>
       </c>
     </row>
@@ -6349,13 +6346,13 @@
       <c r="A317" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="1">
         <v>59.47</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>38800046158</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="1">
         <v>332</v>
       </c>
     </row>
@@ -6363,13 +6360,13 @@
       <c r="A318" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="1">
         <v>77.75</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>200199091114</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="1">
         <v>254</v>
       </c>
     </row>
@@ -6377,13 +6374,13 @@
       <c r="A319" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="1">
         <v>11.44</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>8897689366</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="1">
         <v>1730</v>
       </c>
     </row>
@@ -6391,13 +6388,13 @@
       <c r="A320" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="1">
         <v>85.59999999999999</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>161408980752</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="1">
         <v>231</v>
       </c>
     </row>
@@ -6405,13 +6402,13 @@
       <c r="A321" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="1">
         <v>509.8</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>41311547708</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="1">
         <v>38</v>
       </c>
     </row>
@@ -6419,13 +6416,13 @@
       <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="1">
         <v>260.29</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>1957904013451</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="1">
         <v>76</v>
       </c>
     </row>
@@ -6433,13 +6430,13 @@
       <c r="A323" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="1">
         <v>193.59</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>33293596100</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="1">
         <v>102</v>
       </c>
     </row>
@@ -6447,13 +6444,13 @@
       <c r="A324" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="1">
         <v>159.7</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>21194607901</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="1">
         <v>123</v>
       </c>
     </row>
@@ -6461,13 +6458,13 @@
       <c r="A325" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="1">
         <v>1323.85</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>30785025199</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="1">
         <v>14</v>
       </c>
     </row>
@@ -6475,13 +6472,13 @@
       <c r="A326" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="1">
         <v>86.28</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>98560899394</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="1">
         <v>229</v>
       </c>
     </row>
@@ -6489,13 +6486,13 @@
       <c r="A327" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="1">
         <v>92.90000000000001</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>26115587490</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="1">
         <v>213</v>
       </c>
     </row>
@@ -6503,13 +6500,13 @@
       <c r="A328" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="1">
         <v>16.02</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>8669658012</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="1">
         <v>1236</v>
       </c>
     </row>
@@ -6517,13 +6514,13 @@
       <c r="A329" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="1">
         <v>8.57</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>4158037599</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="1">
         <v>2310</v>
       </c>
     </row>
@@ -6531,13 +6528,13 @@
       <c r="A330" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="1">
         <v>31.69</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>7000983741</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="1">
         <v>624</v>
       </c>
     </row>
@@ -6545,13 +6542,13 @@
       <c r="A331" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="1">
         <v>162.98</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>26919283655</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="1">
         <v>121</v>
       </c>
     </row>
@@ -6559,13 +6556,13 @@
       <c r="A332" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="1">
         <v>79.3</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>153854867975</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="1">
         <v>249</v>
       </c>
     </row>
@@ -6573,13 +6570,13 @@
       <c r="A333" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="1">
         <v>66.70999999999999</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>52265312681</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="1">
         <v>296</v>
       </c>
     </row>
@@ -6587,13 +6584,13 @@
       <c r="A334" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="1">
         <v>532.59</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>234219107909</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="1">
         <v>37</v>
       </c>
     </row>
@@ -6601,13 +6598,13 @@
       <c r="A335" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="1">
         <v>26.8</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>10177090643</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="1">
         <v>738</v>
       </c>
     </row>
@@ -6615,13 +6612,13 @@
       <c r="A336" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="1">
         <v>137.69</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>215716227475</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="1">
         <v>143</v>
       </c>
     </row>
@@ -6629,13 +6626,13 @@
       <c r="A337" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="1">
         <v>22.11</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>12995670730</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="1">
         <v>895</v>
       </c>
     </row>
@@ -6643,13 +6640,13 @@
       <c r="A338" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="1">
         <v>26.89</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>9238168408</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="1">
         <v>736</v>
       </c>
     </row>
@@ -6657,13 +6654,13 @@
       <c r="A339" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="1">
         <v>369</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>59421048760</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="1">
         <v>53</v>
       </c>
     </row>
@@ -6671,13 +6668,13 @@
       <c r="A340" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="1">
         <v>16.2</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>6511326939</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="1">
         <v>1222</v>
       </c>
     </row>
@@ -6685,13 +6682,13 @@
       <c r="A341" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="1">
         <v>512.5700000000001</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>97487982825</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="1">
         <v>38</v>
       </c>
     </row>
@@ -6699,13 +6696,13 @@
       <c r="A342" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="1">
         <v>36.51</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>9079083510</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="1">
         <v>542</v>
       </c>
     </row>
@@ -6713,13 +6710,13 @@
       <c r="A343" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="1">
         <v>283.86</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>73419174712</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="1">
         <v>69</v>
       </c>
     </row>
@@ -6727,13 +6724,13 @@
       <c r="A344" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="1">
         <v>75.20999999999999</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>16754731643</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="1">
         <v>263</v>
       </c>
     </row>
@@ -6741,13 +6738,13 @@
       <c r="A345" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="1">
         <v>118.93</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>24034154798</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="1">
         <v>166</v>
       </c>
     </row>
@@ -6755,13 +6752,13 @@
       <c r="A346" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="1">
         <v>89</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>25854356805</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="1">
         <v>222</v>
       </c>
     </row>
@@ -6769,13 +6766,13 @@
       <c r="A347" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="1">
         <v>600.12</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>375789728760</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="1">
         <v>32</v>
       </c>
     </row>
@@ -6783,13 +6780,13 @@
       <c r="A348" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="1">
         <v>5343.27</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>19194190493</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6797,13 +6794,13 @@
       <c r="A349" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="1">
         <v>27.8</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>12252091419</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="1">
         <v>712</v>
       </c>
     </row>
@@ -6811,13 +6808,13 @@
       <c r="A350" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="1">
         <v>24.76</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>15333451347</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="1">
         <v>799</v>
       </c>
     </row>
@@ -6825,13 +6822,13 @@
       <c r="A351" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="1">
         <v>26.62</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>15909476921</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="1">
         <v>743</v>
       </c>
     </row>
@@ -6839,13 +6836,13 @@
       <c r="A352" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="1">
         <v>70.88</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>25935619530</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="1">
         <v>279</v>
       </c>
     </row>
@@ -6853,13 +6850,13 @@
       <c r="A353" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="1">
         <v>267.34</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>30854983167</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="1">
         <v>74</v>
       </c>
     </row>
@@ -6867,13 +6864,13 @@
       <c r="A354" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="1">
         <v>53.59</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>23746448611</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="1">
         <v>369</v>
       </c>
     </row>
@@ -6881,13 +6878,13 @@
       <c r="A355" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="1">
         <v>87.34999999999999</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>18781814432</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="1">
         <v>226</v>
       </c>
     </row>
@@ -6895,13 +6892,13 @@
       <c r="A356" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="1">
         <v>78.64</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>224135212860</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="1">
         <v>251</v>
       </c>
     </row>
@@ -6909,13 +6906,13 @@
       <c r="A357" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="1">
         <v>564.38</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>40147929474</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="1">
         <v>35</v>
       </c>
     </row>
@@ -6923,13 +6920,13 @@
       <c r="A358" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="1">
         <v>80.7</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>33875777121</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="1">
         <v>245</v>
       </c>
     </row>
@@ -6937,13 +6934,13 @@
       <c r="A359" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="1">
         <v>26.67</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>25199296631</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="1">
         <v>742</v>
       </c>
     </row>
@@ -6951,13 +6948,13 @@
       <c r="A360" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="1">
         <v>391</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>23058106501</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="1">
         <v>50</v>
       </c>
     </row>
@@ -6965,13 +6962,13 @@
       <c r="A361" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="1">
         <v>103.42</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>35869306402</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="1">
         <v>191</v>
       </c>
     </row>
@@ -6979,13 +6976,13 @@
       <c r="A362" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="1">
         <v>18.49</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>7774017191</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="1">
         <v>1070</v>
       </c>
     </row>
@@ -6993,13 +6990,13 @@
       <c r="A363" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="1">
         <v>94.56</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>32540644706</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="1">
         <v>209</v>
       </c>
     </row>
@@ -7007,13 +7004,13 @@
       <c r="A364" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="1">
         <v>34.96</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>19121452678</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="1">
         <v>566</v>
       </c>
     </row>
@@ -7021,13 +7018,13 @@
       <c r="A365" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="1">
         <v>64.28</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>33481401825</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="1">
         <v>308</v>
       </c>
     </row>
@@ -7035,13 +7032,13 @@
       <c r="A366" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="1">
         <v>150.62</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>205859868001</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="1">
         <v>131</v>
       </c>
     </row>
@@ -7049,13 +7046,13 @@
       <c r="A367" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="1">
         <v>40.98</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>222873927167</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="1">
         <v>483</v>
       </c>
     </row>
@@ -7063,13 +7060,13 @@
       <c r="A368" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="1">
         <v>64.88</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>18185137228</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="1">
         <v>305</v>
       </c>
     </row>
@@ -7077,13 +7074,13 @@
       <c r="A369" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="1">
         <v>140</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>340718755933</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="1">
         <v>141</v>
       </c>
     </row>
@@ -7091,13 +7088,13 @@
       <c r="A370" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="1">
         <v>106.89</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>61208192884</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="1">
         <v>185</v>
       </c>
     </row>
@@ -7105,13 +7102,13 @@
       <c r="A371" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="1">
         <v>320.52</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>41155933880</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="1">
         <v>61</v>
       </c>
     </row>
@@ -7119,13 +7116,13 @@
       <c r="A372" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="1">
         <v>63.03</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>16005748851</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="1">
         <v>314</v>
       </c>
     </row>
@@ -7133,13 +7130,13 @@
       <c r="A373" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="1">
         <v>152.42</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>14663221890</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="1">
         <v>129</v>
       </c>
     </row>
@@ -7147,13 +7144,13 @@
       <c r="A374" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="1">
         <v>135.86</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>15239335626</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="1">
         <v>145</v>
       </c>
     </row>
@@ -7161,13 +7158,13 @@
       <c r="A375" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="1">
         <v>118.38</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>86608190878</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="1">
         <v>167</v>
       </c>
     </row>
@@ -7175,13 +7172,13 @@
       <c r="A376" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="1">
         <v>100.35</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>156688448243</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="1">
         <v>197</v>
       </c>
     </row>
@@ -7189,13 +7186,13 @@
       <c r="A377" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="1">
         <v>194.93</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>80331260507</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="1">
         <v>101</v>
       </c>
     </row>
@@ -7203,13 +7200,13 @@
       <c r="A378" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="1">
         <v>66.09</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>11334391540</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="1">
         <v>299</v>
       </c>
     </row>
@@ -7217,13 +7214,13 @@
       <c r="A379" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="1">
         <v>87.42</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>9885013832</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="1">
         <v>226</v>
       </c>
     </row>
@@ -7231,13 +7228,13 @@
       <c r="A380" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="1">
         <v>180.99</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>41923975133</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="1">
         <v>109</v>
       </c>
     </row>
@@ -7245,13 +7242,13 @@
       <c r="A381" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="1">
         <v>30.01</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>23461049817</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="1">
         <v>659</v>
       </c>
     </row>
@@ -7259,13 +7256,13 @@
       <c r="A382" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="1">
         <v>43.61</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>5805246331</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="1">
         <v>454</v>
       </c>
     </row>
@@ -7273,13 +7270,13 @@
       <c r="A383" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="1">
         <v>101.61</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>40783630734</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="1">
         <v>194</v>
       </c>
     </row>
@@ -7287,13 +7284,13 @@
       <c r="A384" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="1">
         <v>279.03</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>49822221871</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="1">
         <v>70</v>
       </c>
     </row>
@@ -7301,13 +7298,13 @@
       <c r="A385" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="1">
         <v>84.90000000000001</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>38023028567</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="1">
         <v>233</v>
       </c>
     </row>
@@ -7315,13 +7312,13 @@
       <c r="A386" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="1">
         <v>116.69</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>8617743780</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="1">
         <v>169</v>
       </c>
     </row>
@@ -7329,13 +7326,13 @@
       <c r="A387" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="1">
         <v>100.84</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>13694024139</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="1">
         <v>196</v>
       </c>
     </row>
@@ -7343,13 +7340,13 @@
       <c r="A388" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="1">
         <v>163.69</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>35372983870</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="1">
         <v>120</v>
       </c>
     </row>
@@ -7357,13 +7354,13 @@
       <c r="A389" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="1">
         <v>268.76</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>304339150775</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="1">
         <v>73</v>
       </c>
     </row>
@@ -7371,13 +7368,13 @@
       <c r="A390" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="1">
         <v>140.48</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>159803205253</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="1">
         <v>140</v>
       </c>
     </row>
@@ -7385,13 +7382,13 @@
       <c r="A391" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="1">
         <v>189.08</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>21108795592</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="1">
         <v>104</v>
       </c>
     </row>
@@ -7399,13 +7396,13 @@
       <c r="A392" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="1">
         <v>91.12</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>22933952025</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="1">
         <v>217</v>
       </c>
     </row>
@@ -7413,13 +7410,13 @@
       <c r="A393" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="1">
         <v>284.23</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>14034465138</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="1">
         <v>69</v>
       </c>
     </row>
@@ -7427,13 +7424,13 @@
       <c r="A394" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="1">
         <v>65.92</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>11326430225</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="1">
         <v>300</v>
       </c>
     </row>
@@ -7441,13 +7438,13 @@
       <c r="A395" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="1">
         <v>500.83</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>53472748904</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="1">
         <v>39</v>
       </c>
     </row>
@@ -7455,13 +7452,13 @@
       <c r="A396" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="1">
         <v>22.8</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>21785910729</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="1">
         <v>868</v>
       </c>
     </row>
@@ -7469,13 +7466,13 @@
       <c r="A397" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="1">
         <v>87.59</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>10069994460</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="1">
         <v>226</v>
       </c>
     </row>
@@ -7483,13 +7480,13 @@
       <c r="A398" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="1">
         <v>137.16</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>18196092025</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="1">
         <v>144</v>
       </c>
     </row>
@@ -7497,13 +7494,13 @@
       <c r="A399" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="1">
         <v>136.86</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>9964384763</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="1">
         <v>144</v>
       </c>
     </row>
@@ -7511,13 +7508,13 @@
       <c r="A400" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="1">
         <v>197.51</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>29426796039</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="1">
         <v>100</v>
       </c>
     </row>
@@ -7525,13 +7522,13 @@
       <c r="A401" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="1">
         <v>269.85</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>30518432010</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="1">
         <v>73</v>
       </c>
     </row>
@@ -7539,13 +7536,13 @@
       <c r="A402" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="1">
         <v>37.77</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>19216412389</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="1">
         <v>524</v>
       </c>
     </row>
@@ -7553,13 +7550,13 @@
       <c r="A403" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="1">
         <v>453.78</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>48615104250</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="1">
         <v>43</v>
       </c>
     </row>
@@ -7567,13 +7564,13 @@
       <c r="A404" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="1">
         <v>136.74</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>47483839881</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="1">
         <v>144</v>
       </c>
     </row>
@@ -7581,13 +7578,13 @@
       <c r="A405" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="1">
         <v>108.14</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>34480445999</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="1">
         <v>183</v>
       </c>
     </row>
@@ -7595,13 +7592,13 @@
       <c r="A406" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="1">
         <v>86.72</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>127556716374</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="1">
         <v>228</v>
       </c>
     </row>
@@ -7609,13 +7606,13 @@
       <c r="A407" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="1">
         <v>306.9</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>33592674946</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="1">
         <v>64</v>
       </c>
     </row>
@@ -7623,13 +7620,13 @@
       <c r="A408" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="1">
         <v>117.63</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>139071150043</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="1">
         <v>168</v>
       </c>
     </row>
@@ -7637,13 +7634,13 @@
       <c r="A409" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="1">
         <v>73.5</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>139062736632</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="1">
         <v>269</v>
       </c>
     </row>
@@ -7651,13 +7648,13 @@
       <c r="A410" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="1">
         <v>51.21</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="1">
         <v>8064607101</v>
       </c>
-      <c r="D410">
+      <c r="D410" s="1">
         <v>386</v>
       </c>
     </row>
@@ -7665,13 +7662,13 @@
       <c r="A411" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="1">
         <v>285.52</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="1">
         <v>25766861902</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="1">
         <v>69</v>
       </c>
     </row>
@@ -7679,13 +7676,13 @@
       <c r="A412" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="1">
         <v>579.79</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="1">
         <v>29362021530</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="1">
         <v>34</v>
       </c>
     </row>
@@ -7693,13 +7690,13 @@
       <c r="A413" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="1">
         <v>136.03</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>14494224522</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="1">
         <v>145</v>
       </c>
     </row>
@@ -7707,13 +7704,13 @@
       <c r="A414" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="1">
         <v>28.85</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>41272490413</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="1">
         <v>686</v>
       </c>
     </row>
@@ -7721,13 +7718,13 @@
       <c r="A415" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="1">
         <v>73.34999999999999</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>5312367369</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="1">
         <v>269</v>
       </c>
     </row>
@@ -7735,13 +7732,13 @@
       <c r="A416" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="1">
         <v>249.84</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>13273981844</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="1">
         <v>79</v>
       </c>
     </row>
@@ -7749,13 +7746,13 @@
       <c r="A417" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="1">
         <v>250.52</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="1">
         <v>38708454099</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="1">
         <v>79</v>
       </c>
     </row>
@@ -7763,13 +7760,13 @@
       <c r="A418" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="1">
         <v>66.65000000000001</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>70717163795</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="1">
         <v>297</v>
       </c>
     </row>
@@ -7777,13 +7774,13 @@
       <c r="A419" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="1">
         <v>127.7</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>41697071283</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="1">
         <v>155</v>
       </c>
     </row>
@@ -7791,13 +7788,13 @@
       <c r="A420" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="1">
         <v>401.6</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="1">
         <v>96384805564</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="1">
         <v>49</v>
       </c>
     </row>
@@ -7805,13 +7802,13 @@
       <c r="A421" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="1">
         <v>142.34</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>41792024587</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="1">
         <v>139</v>
       </c>
     </row>
@@ -7819,13 +7816,13 @@
       <c r="A422" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="1">
         <v>222.35</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>18315620988</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="1">
         <v>89</v>
       </c>
     </row>
@@ -7833,13 +7830,13 @@
       <c r="A423" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="1">
         <v>85.28</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>30128291060</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="1">
         <v>232</v>
       </c>
     </row>
@@ -7847,13 +7844,13 @@
       <c r="A424" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="1">
         <v>95.5</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>21853523844</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="1">
         <v>207</v>
       </c>
     </row>
@@ -7861,13 +7858,13 @@
       <c r="A425" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="1">
         <v>252.4</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>47244187606</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="1">
         <v>78</v>
       </c>
     </row>
@@ -7875,13 +7872,13 @@
       <c r="A426" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="1">
         <v>219.25</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="1">
         <v>34620179067</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="1">
         <v>90</v>
       </c>
     </row>
@@ -7889,13 +7886,13 @@
       <c r="A427" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="1">
         <v>182.93</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="1">
         <v>30225019035</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="1">
         <v>108</v>
       </c>
     </row>
@@ -7903,13 +7900,13 @@
       <c r="A428" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="1">
         <v>43.74</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="1">
         <v>26646340933</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="1">
         <v>452</v>
       </c>
     </row>
@@ -7917,13 +7914,13 @@
       <c r="A429" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="1">
         <v>272</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>99247386592</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="1">
         <v>72</v>
       </c>
     </row>
@@ -7931,13 +7928,13 @@
       <c r="A430" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="1">
         <v>84.76000000000001</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>44931489821</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="1">
         <v>233</v>
       </c>
     </row>
@@ -7945,13 +7942,13 @@
       <c r="A431" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="1">
         <v>32.1</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>231013021861</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="1">
         <v>616</v>
       </c>
     </row>
@@ -7959,13 +7956,13 @@
       <c r="A432" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="1">
         <v>57.74</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>12616599872</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="1">
         <v>342</v>
       </c>
     </row>
@@ -7973,13 +7970,13 @@
       <c r="A433" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="1">
         <v>634.01</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>34494849266</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="1">
         <v>31</v>
       </c>
     </row>
@@ -7987,13 +7984,13 @@
       <c r="A434" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="1">
         <v>444.1</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>17094336250</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="1">
         <v>44</v>
       </c>
     </row>
@@ -8001,13 +7998,13 @@
       <c r="A435" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="1">
         <v>138.21</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>44476408123</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="1">
         <v>143</v>
       </c>
     </row>
@@ -8015,13 +8012,13 @@
       <c r="A436" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="1">
         <v>61.97</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>81882961736</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="1">
         <v>319</v>
       </c>
     </row>
@@ -8029,13 +8026,13 @@
       <c r="A437" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="1">
         <v>420.53</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="1">
         <v>20276151199</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="1">
         <v>47</v>
       </c>
     </row>
@@ -8043,13 +8040,13 @@
       <c r="A438" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="1">
         <v>221.4</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="1">
         <v>107730371107</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="1">
         <v>89</v>
       </c>
     </row>
@@ -8057,13 +8054,13 @@
       <c r="A439" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="1">
         <v>133.31</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="1">
         <v>16066024329</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="1">
         <v>148</v>
       </c>
     </row>
@@ -8071,13 +8068,13 @@
       <c r="A440" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="1">
         <v>75.55</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="1">
         <v>89008800560</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="1">
         <v>262</v>
       </c>
     </row>
@@ -8085,13 +8082,13 @@
       <c r="A441" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="1">
         <v>481.81</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="1">
         <v>186981464760</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="1">
         <v>41</v>
       </c>
     </row>
@@ -8099,13 +8096,13 @@
       <c r="A442" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="1">
         <v>132.49</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="1">
         <v>168659975254</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="1">
         <v>149</v>
       </c>
     </row>
@@ -8113,13 +8110,13 @@
       <c r="A443" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="1">
         <v>48.85</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>14004524824</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="1">
         <v>405</v>
       </c>
     </row>
@@ -8127,13 +8124,13 @@
       <c r="A444" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="1">
         <v>190.1</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="1">
         <v>42801144321</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="1">
         <v>104</v>
       </c>
     </row>
@@ -8141,13 +8138,13 @@
       <c r="A445" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="1">
         <v>163.88</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>39737366011</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="1">
         <v>120</v>
       </c>
     </row>
@@ -8155,13 +8152,13 @@
       <c r="A446" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="1">
         <v>201.66</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>22924238655</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="1">
         <v>98</v>
       </c>
     </row>
@@ -8169,13 +8166,13 @@
       <c r="A447" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="1">
         <v>80.3</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="1">
         <v>29121238278</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="1">
         <v>246</v>
       </c>
     </row>
@@ -8183,13 +8180,13 @@
       <c r="A448" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="1">
         <v>182.85</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="1">
         <v>43732243597</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="1">
         <v>108</v>
       </c>
     </row>
@@ -8197,13 +8194,13 @@
       <c r="A449" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="1">
         <v>177</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="1">
         <v>19997743768</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="1">
         <v>111</v>
       </c>
     </row>
@@ -8211,13 +8208,13 @@
       <c r="A450" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="1">
         <v>56.74</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="1">
         <v>44599413535</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="1">
         <v>348</v>
       </c>
     </row>
@@ -8225,13 +8222,13 @@
       <c r="A451" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="1">
         <v>180.954</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="1">
         <v>165377741480</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="1">
         <v>109</v>
       </c>
     </row>
@@ -8239,13 +8236,13 @@
       <c r="A452" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="1">
         <v>67.36</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="1">
         <v>15249548548</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="1">
         <v>293</v>
       </c>
     </row>
@@ -8253,13 +8250,13 @@
       <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="1">
         <v>432.45</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="1">
         <v>17456438433</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="1">
         <v>45</v>
       </c>
     </row>
@@ -8267,13 +8264,13 @@
       <c r="A454" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="1">
         <v>20.35</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="1">
         <v>10811630321</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="1">
         <v>973</v>
       </c>
     </row>
@@ -8281,13 +8278,13 @@
       <c r="A455" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="1">
         <v>24.91</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="1">
         <v>10779842161</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="1">
         <v>794</v>
       </c>
     </row>
@@ -8295,13 +8292,13 @@
       <c r="A456" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="1">
         <v>55.57</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="1">
         <v>18490006081</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="1">
         <v>356</v>
       </c>
     </row>
@@ -8309,13 +8306,13 @@
       <c r="A457" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="1">
         <v>47.26</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="1">
         <v>14364154203</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="1">
         <v>419</v>
       </c>
     </row>
@@ -8323,13 +8320,13 @@
       <c r="A458" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="1">
         <v>154.42</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="1">
         <v>12960073854</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="1">
         <v>128</v>
       </c>
     </row>
@@ -8337,13 +8334,13 @@
       <c r="A459" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="1">
         <v>330.39</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="1">
         <v>18592443873</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="1">
         <v>59</v>
       </c>
     </row>
@@ -8351,13 +8348,13 @@
       <c r="A460" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="1">
         <v>420.2</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="1">
         <v>398322529917</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="1">
         <v>47</v>
       </c>
     </row>
@@ -8365,13 +8362,13 @@
       <c r="A461" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="1">
         <v>28.98</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="1">
         <v>6091753413</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="1">
         <v>683</v>
       </c>
     </row>
@@ -8379,13 +8376,13 @@
       <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="1">
         <v>233.21</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="1">
         <v>150031896991</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="1">
         <v>84</v>
       </c>
     </row>
@@ -8393,13 +8390,13 @@
       <c r="A463" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="1">
         <v>221.8</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="1">
         <v>186316588519</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="1">
         <v>89</v>
       </c>
     </row>
@@ -8407,13 +8404,13 @@
       <c r="A464" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="1">
         <v>334.2</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="1">
         <v>24324517769</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="1">
         <v>59</v>
       </c>
     </row>
@@ -8421,13 +8418,13 @@
       <c r="A465" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="1">
         <v>59.79</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="1">
         <v>93479164765</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="1">
         <v>331</v>
       </c>
     </row>
@@ -8435,13 +8432,13 @@
       <c r="A466" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="1">
         <v>241.05</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="1">
         <v>527486740269</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="1">
         <v>82</v>
       </c>
     </row>
@@ -8449,13 +8446,13 @@
       <c r="A467" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="1">
         <v>181.34</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="1">
         <v>16777352462</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="1">
         <v>109</v>
       </c>
     </row>
@@ -8463,13 +8460,13 @@
       <c r="A468" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="1">
         <v>91.97</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="1">
         <v>35512947127</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="1">
         <v>215</v>
       </c>
     </row>
@@ -8477,13 +8474,13 @@
       <c r="A469" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="1">
         <v>40.65</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="1">
         <v>26082574048</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="1">
         <v>487</v>
       </c>
     </row>
@@ -8491,13 +8488,13 @@
       <c r="A470" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="1">
         <v>79.86</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="1">
         <v>32145038545</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="1">
         <v>247</v>
       </c>
     </row>
@@ -8505,13 +8502,13 @@
       <c r="A471" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="1">
         <v>187.14</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="1">
         <v>24751974099</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="1">
         <v>105</v>
       </c>
     </row>
@@ -8519,13 +8516,13 @@
       <c r="A472" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="1">
         <v>46.98</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="1">
         <v>8950231367</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="1">
         <v>421</v>
       </c>
     </row>
@@ -8533,13 +8530,13 @@
       <c r="A473" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="1">
         <v>191.32</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="1">
         <v>31904213121</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="1">
         <v>103</v>
       </c>
     </row>
@@ -8547,13 +8544,13 @@
       <c r="A474" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="1">
         <v>228.79</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="1">
         <v>25560979944</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="1">
         <v>86</v>
       </c>
     </row>
@@ -8561,13 +8558,13 @@
       <c r="A475" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="1">
         <v>223.29</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="1">
         <v>58358230834</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="1">
         <v>88</v>
       </c>
     </row>
@@ -8575,13 +8572,13 @@
       <c r="A476" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="1">
         <v>56.02</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="1">
         <v>21111282978</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="1">
         <v>353</v>
       </c>
     </row>
@@ -8589,13 +8586,13 @@
       <c r="A477" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="1">
         <v>58.5</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="1">
         <v>240272896300</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="1">
         <v>338</v>
       </c>
     </row>
@@ -8603,13 +8600,13 @@
       <c r="A478" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="1">
         <v>83.48999999999999</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="1">
         <v>15384772107</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="1">
         <v>237</v>
       </c>
     </row>
@@ -8617,13 +8614,13 @@
       <c r="A479" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="1">
         <v>314.46</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="1">
         <v>19465288914</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="1">
         <v>62</v>
       </c>
     </row>
@@ -8631,13 +8628,13 @@
       <c r="A480" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="1">
         <v>56</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="1">
         <v>47474866977</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="1">
         <v>353</v>
       </c>
     </row>
@@ -8645,13 +8642,13 @@
       <c r="A481" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="1">
         <v>70.73</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="1">
         <v>22114692044</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="1">
         <v>279</v>
       </c>
     </row>
@@ -8659,13 +8656,13 @@
       <c r="A482" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="1">
         <v>101</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="1">
         <v>31234271878</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="1">
         <v>196</v>
       </c>
     </row>
@@ -8673,13 +8670,13 @@
       <c r="A483" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="1">
         <v>79.34</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="1">
         <v>33239544429</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="1">
         <v>249</v>
       </c>
     </row>
@@ -8687,13 +8684,13 @@
       <c r="A484" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="1">
         <v>45.57</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="1">
         <v>192355431096</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="1">
         <v>434</v>
       </c>
     </row>
@@ -8701,13 +8698,13 @@
       <c r="A485" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="1">
         <v>252.24</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="1">
         <v>15340039956</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="1">
         <v>78</v>
       </c>
     </row>
@@ -8715,13 +8712,13 @@
       <c r="A486" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="1">
         <v>264.55</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="1">
         <v>34997037834</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="1">
         <v>74</v>
       </c>
     </row>
@@ -8729,13 +8726,13 @@
       <c r="A487" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="1">
         <v>146.36</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="1">
         <v>61006386390</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="1">
         <v>135</v>
       </c>
     </row>
@@ -8743,13 +8740,13 @@
       <c r="A488" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="1">
         <v>25.08</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="1">
         <v>30462392743</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="1">
         <v>789</v>
       </c>
     </row>
@@ -8757,13 +8754,13 @@
       <c r="A489" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="1">
         <v>145.31</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="1">
         <v>404902548152</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="1">
         <v>136</v>
       </c>
     </row>
@@ -8771,13 +8768,13 @@
       <c r="A490" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="1">
         <v>82.65000000000001</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="1">
         <v>14934108513</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="1">
         <v>239</v>
       </c>
     </row>
@@ -8785,13 +8782,13 @@
       <c r="A491" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="1">
         <v>58.07</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="1">
         <v>15426344187</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="1">
         <v>341</v>
       </c>
     </row>
@@ -8799,13 +8796,13 @@
       <c r="A492" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="1">
         <v>340.84</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="1">
         <v>24919422879</v>
       </c>
-      <c r="D492">
+      <c r="D492" s="1">
         <v>58</v>
       </c>
     </row>
@@ -8813,13 +8810,13 @@
       <c r="A493" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="1">
         <v>25.76</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="1">
         <v>10562142161</v>
       </c>
-      <c r="D493">
+      <c r="D493" s="1">
         <v>768</v>
       </c>
     </row>
@@ -8827,13 +8824,13 @@
       <c r="A494" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="1">
         <v>40.61</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="1">
         <v>29752041586</v>
       </c>
-      <c r="D494">
+      <c r="D494" s="1">
         <v>487</v>
       </c>
     </row>
@@ -8841,13 +8838,13 @@
       <c r="A495" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="1">
         <v>130.05</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="1">
         <v>15215187903</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="1">
         <v>152</v>
       </c>
     </row>
@@ -8855,13 +8852,13 @@
       <c r="A496" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="1">
         <v>73.15000000000001</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="1">
         <v>40147353446</v>
       </c>
-      <c r="D496">
+      <c r="D496" s="1">
         <v>270</v>
       </c>
     </row>
@@ -8869,13 +8866,13 @@
       <c r="A497" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="1">
         <v>123.57</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="1">
         <v>30440240865</v>
       </c>
-      <c r="D497">
+      <c r="D497" s="1">
         <v>160</v>
       </c>
     </row>
@@ -8883,13 +8880,13 @@
       <c r="A498" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="1">
         <v>61.49</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="1">
         <v>257639209356</v>
       </c>
-      <c r="D498">
+      <c r="D498" s="1">
         <v>322</v>
       </c>
     </row>
@@ -8897,13 +8894,13 @@
       <c r="A499" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="1">
         <v>68.88</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="1">
         <v>15278722047</v>
       </c>
-      <c r="D499">
+      <c r="D499" s="1">
         <v>287</v>
       </c>
     </row>
@@ -8911,13 +8908,13 @@
       <c r="A500" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="1">
         <v>25.3</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="1">
         <v>4896766941</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="1">
         <v>782</v>
       </c>
     </row>
@@ -8925,13 +8922,13 @@
       <c r="A501" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="1">
         <v>112.7</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="1">
         <v>20493617714</v>
       </c>
-      <c r="D501">
+      <c r="D501" s="1">
         <v>175</v>
       </c>
     </row>
@@ -8939,13 +8936,13 @@
       <c r="A502" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="1">
         <v>121.71</v>
       </c>
-      <c r="C502">
+      <c r="C502" s="1">
         <v>37199826309</v>
       </c>
-      <c r="D502">
+      <c r="D502" s="1">
         <v>162</v>
       </c>
     </row>
@@ -8953,13 +8950,13 @@
       <c r="A503" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B503">
+      <c r="B503" s="1">
         <v>178.22</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="1">
         <v>38615750338</v>
       </c>
-      <c r="D503">
+      <c r="D503" s="1">
         <v>111</v>
       </c>
     </row>
@@ -8967,13 +8964,13 @@
       <c r="A504" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="1">
         <v>480.79</v>
       </c>
-      <c r="C504">
+      <c r="C504" s="1">
         <v>25749394715</v>
       </c>
-      <c r="D504">
+      <c r="D504" s="1">
         <v>41</v>
       </c>
     </row>
@@ -8981,13 +8978,13 @@
       <c r="A505" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="1">
         <v>56.348</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="1">
         <v>9504362669</v>
       </c>
-      <c r="D505">
+      <c r="D505" s="1">
         <v>351</v>
       </c>
     </row>
@@ -8995,13 +8992,13 @@
       <c r="A506" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="1">
         <v>178.09</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="1">
         <v>84327839348</v>
       </c>
-      <c r="D506">
+      <c r="D506" s="1">
         <v>111</v>
       </c>
     </row>

--- a/starter_files/recommended trades.xlsx
+++ b/starter_files/recommended trades.xlsx
@@ -1937,13 +1937,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>138.5</v>
+        <v>130.765</v>
       </c>
       <c r="C2" s="1">
-        <v>40610790836</v>
+        <v>39811447506</v>
       </c>
       <c r="D2" s="1">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1951,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>22.24</v>
+        <v>22.214</v>
       </c>
       <c r="C3" s="1">
-        <v>14341202227</v>
+        <v>14064946772</v>
       </c>
       <c r="D3" s="1">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1965,13 +1965,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>202.15</v>
+        <v>208.25</v>
       </c>
       <c r="C4" s="1">
-        <v>13367157092</v>
+        <v>13588078177</v>
       </c>
       <c r="D4" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1979,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>137.82</v>
+        <v>132.05</v>
       </c>
       <c r="C5" s="1">
-        <v>2223258711128</v>
+        <v>2202807363944</v>
       </c>
       <c r="D5" s="1">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>119.67</v>
+        <v>114.688</v>
       </c>
       <c r="C6" s="1">
-        <v>202439347808</v>
+        <v>207821263755</v>
       </c>
       <c r="D6" s="1">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2007,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>124.82</v>
+        <v>127.58</v>
       </c>
       <c r="C7" s="1">
-        <v>25527349869</v>
+        <v>26084730512</v>
       </c>
       <c r="D7" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2021,10 +2021,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>310.54</v>
+        <v>309.41</v>
       </c>
       <c r="C8" s="1">
-        <v>14129850136</v>
+        <v>13840077190</v>
       </c>
       <c r="D8" s="1">
         <v>63</v>
@@ -2035,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>122.1</v>
+        <v>120.285</v>
       </c>
       <c r="C9" s="1">
-        <v>221315231163</v>
+        <v>208563217129</v>
       </c>
       <c r="D9" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2049,13 +2049,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>300.27</v>
+        <v>298.78</v>
       </c>
       <c r="C10" s="1">
-        <v>200494283752</v>
+        <v>193533346498</v>
       </c>
       <c r="D10" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2063,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>519.13</v>
+        <v>502.99</v>
       </c>
       <c r="C11" s="1">
-        <v>248568950195</v>
+        <v>243739615150</v>
       </c>
       <c r="D11" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2077,13 +2077,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>151.37</v>
+        <v>153.78</v>
       </c>
       <c r="C12" s="1">
-        <v>57918805495</v>
+        <v>56145539277</v>
       </c>
       <c r="D12" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2091,13 +2091,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>66.12</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>36488513355</v>
+        <v>36878150785</v>
       </c>
       <c r="D13" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2105,10 +2105,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>196.83</v>
+        <v>197.438</v>
       </c>
       <c r="C14" s="1">
-        <v>83616827789</v>
+        <v>85184974473</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -2119,13 +2119,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>300.4</v>
+        <v>290.59</v>
       </c>
       <c r="C15" s="1">
-        <v>63762295396</v>
+        <v>61458793912</v>
       </c>
       <c r="D15" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2133,13 +2133,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="1">
-        <v>85.95</v>
+        <v>87.44</v>
       </c>
       <c r="C16" s="1">
-        <v>22767230659</v>
+        <v>22049757114</v>
       </c>
       <c r="D16" s="1">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2147,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>90.73999999999999</v>
+        <v>88.55</v>
       </c>
       <c r="C17" s="1">
-        <v>45959248950</v>
+        <v>45000347306</v>
       </c>
       <c r="D17" s="1">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>27.9</v>
+        <v>26.941</v>
       </c>
       <c r="C18" s="1">
-        <v>18941700916</v>
+        <v>18424286552</v>
       </c>
       <c r="D18" s="1">
-        <v>709</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>54.96</v>
+        <v>55.01</v>
       </c>
       <c r="C19" s="1">
-        <v>38206600740</v>
+        <v>38464476998</v>
       </c>
       <c r="D19" s="1">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>50.06</v>
+        <v>49.811</v>
       </c>
       <c r="C20" s="1">
-        <v>43464508474</v>
+        <v>41780941551</v>
       </c>
       <c r="D20" s="1">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="1">
-        <v>7.12</v>
+        <v>6.89</v>
       </c>
       <c r="C21" s="1">
-        <v>1050955876</v>
+        <v>1066477218</v>
       </c>
       <c r="D21" s="1">
-        <v>2781</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2217,10 +2217,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>160.56</v>
+        <v>160.55</v>
       </c>
       <c r="C22" s="1">
-        <v>9486847245</v>
+        <v>9562139894</v>
       </c>
       <c r="D22" s="1">
         <v>123</v>
@@ -2231,13 +2231,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>145.24</v>
+        <v>148.72</v>
       </c>
       <c r="C23" s="1">
-        <v>28661447086</v>
+        <v>28894192288</v>
       </c>
       <c r="D23" s="1">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2245,13 +2245,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>108.74</v>
+        <v>104.999</v>
       </c>
       <c r="C24" s="1">
-        <v>17916533424</v>
+        <v>17308771417</v>
       </c>
       <c r="D24" s="1">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2259,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>171.51</v>
+        <v>168.81</v>
       </c>
       <c r="C25" s="1">
-        <v>19754024185</v>
+        <v>19311834284</v>
       </c>
       <c r="D25" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2273,13 +2273,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>617.7</v>
+        <v>589.46</v>
       </c>
       <c r="C26" s="1">
-        <v>49386225141</v>
+        <v>47339917417</v>
       </c>
       <c r="D26" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2287,13 +2287,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>71.97</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>8598226247</v>
+        <v>8246993007</v>
       </c>
       <c r="D27" s="1">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2301,13 +2301,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="1">
-        <v>131.83</v>
+        <v>128.58</v>
       </c>
       <c r="C28" s="1">
-        <v>38557254235</v>
+        <v>39376915061</v>
       </c>
       <c r="D28" s="1">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2315,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="1">
-        <v>136.24</v>
+        <v>141.62</v>
       </c>
       <c r="C29" s="1">
-        <v>12516925659</v>
+        <v>12901714507</v>
       </c>
       <c r="D29" s="1">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2329,13 +2329,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="1">
-        <v>171.35</v>
+        <v>176.21</v>
       </c>
       <c r="C30" s="1">
-        <v>37803548552</v>
+        <v>39005608850</v>
       </c>
       <c r="D30" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2343,13 +2343,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="1">
-        <v>135.56</v>
+        <v>131.06</v>
       </c>
       <c r="C31" s="1">
-        <v>124795492462</v>
+        <v>119821841825</v>
       </c>
       <c r="D31" s="1">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2357,13 +2357,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>12.25</v>
+        <v>13.096</v>
       </c>
       <c r="C32" s="1">
-        <v>18922844072</v>
+        <v>19725876790</v>
       </c>
       <c r="D32" s="1">
-        <v>1616</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2371,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="1">
-        <v>79.54000000000001</v>
+        <v>80.05</v>
       </c>
       <c r="C33" s="1">
-        <v>98741041677</v>
+        <v>97578395987</v>
       </c>
       <c r="D33" s="1">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2385,13 +2385,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="1">
-        <v>138.5</v>
+        <v>141.5</v>
       </c>
       <c r="C34" s="1">
-        <v>32422428920</v>
+        <v>32880387465</v>
       </c>
       <c r="D34" s="1">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2399,13 +2399,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="1">
-        <v>245.4</v>
+        <v>253.35</v>
       </c>
       <c r="C35" s="1">
-        <v>145450810677</v>
+        <v>147257489323</v>
       </c>
       <c r="D35" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2413,10 +2413,10 @@
         <v>38</v>
       </c>
       <c r="B36" s="1">
-        <v>258.74</v>
+        <v>257.6</v>
       </c>
       <c r="C36" s="1">
-        <v>31372105596</v>
+        <v>31054384850</v>
       </c>
       <c r="D36" s="1">
         <v>76</v>
@@ -2427,10 +2427,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="1">
-        <v>260.18</v>
+        <v>257.2</v>
       </c>
       <c r="C37" s="1">
-        <v>116290408415</v>
+        <v>111377921633</v>
       </c>
       <c r="D37" s="1">
         <v>76</v>
@@ -2441,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="B38" s="1">
-        <v>3455.05</v>
+        <v>3365.2</v>
       </c>
       <c r="C38" s="1">
-        <v>1765804812978</v>
+        <v>1670115532582</v>
       </c>
       <c r="D38" s="1">
         <v>5</v>
@@ -2455,13 +2455,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="1">
-        <v>320.02</v>
+        <v>309.54</v>
       </c>
       <c r="C39" s="1">
-        <v>24605765475</v>
+        <v>23452989126</v>
       </c>
       <c r="D39" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2469,13 +2469,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="1">
-        <v>371.08</v>
+        <v>366.45</v>
       </c>
       <c r="C40" s="1">
-        <v>31742084644</v>
+        <v>31405937842</v>
       </c>
       <c r="D40" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2483,13 +2483,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="1">
-        <v>399.86</v>
+        <v>406.97</v>
       </c>
       <c r="C41" s="1">
-        <v>99192468639</v>
+        <v>99792752798</v>
       </c>
       <c r="D41" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2497,10 +2497,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="1">
-        <v>264.05</v>
+        <v>265.12</v>
       </c>
       <c r="C42" s="1">
-        <v>58410464568</v>
+        <v>59847822112</v>
       </c>
       <c r="D42" s="1">
         <v>74</v>
@@ -2511,13 +2511,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="1">
-        <v>72.37</v>
+        <v>72.79300000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>11870136505</v>
+        <v>11832435441</v>
       </c>
       <c r="D43" s="1">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2525,13 +2525,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="1">
-        <v>21.1</v>
+        <v>20.897</v>
       </c>
       <c r="C44" s="1">
-        <v>7827132565</v>
+        <v>7689983641</v>
       </c>
       <c r="D44" s="1">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2539,13 +2539,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="1">
-        <v>297.19</v>
+        <v>290.034</v>
       </c>
       <c r="C45" s="1">
-        <v>66136367074</v>
+        <v>66697002257</v>
       </c>
       <c r="D45" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2553,13 +2553,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="1">
-        <v>68.66</v>
+        <v>68.98</v>
       </c>
       <c r="C46" s="1">
-        <v>40929277365</v>
+        <v>39740547247</v>
       </c>
       <c r="D46" s="1">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2567,13 +2567,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="1">
-        <v>145.85</v>
+        <v>144.85</v>
       </c>
       <c r="C47" s="1">
-        <v>39176418054</v>
+        <v>37995657666</v>
       </c>
       <c r="D47" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2581,10 +2581,10 @@
         <v>50</v>
       </c>
       <c r="B48" s="1">
-        <v>180.23</v>
+        <v>181.24</v>
       </c>
       <c r="C48" s="1">
-        <v>27019465168</v>
+        <v>26881370788</v>
       </c>
       <c r="D48" s="1">
         <v>109</v>
@@ -2595,13 +2595,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="1">
-        <v>108.46</v>
+        <v>107.305</v>
       </c>
       <c r="C49" s="1">
-        <v>13697192369</v>
+        <v>13916348410</v>
       </c>
       <c r="D49" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2609,13 +2609,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="1">
-        <v>95.26000000000001</v>
+        <v>89.771</v>
       </c>
       <c r="C50" s="1">
-        <v>72977200697</v>
+        <v>69928541106</v>
       </c>
       <c r="D50" s="1">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2623,13 +2623,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="1">
-        <v>196.05</v>
+        <v>192.02</v>
       </c>
       <c r="C51" s="1">
-        <v>27806980504</v>
+        <v>27081109439</v>
       </c>
       <c r="D51" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2637,13 +2637,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="1">
-        <v>471.73</v>
+        <v>446.14</v>
       </c>
       <c r="C52" s="1">
-        <v>191878265813</v>
+        <v>183352815375</v>
       </c>
       <c r="D52" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2651,13 +2651,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="1">
-        <v>220.48</v>
+        <v>218.51</v>
       </c>
       <c r="C53" s="1">
-        <v>17963637295</v>
+        <v>18062710238</v>
       </c>
       <c r="D53" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2665,13 +2665,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="1">
-        <v>156.5</v>
+        <v>155.42</v>
       </c>
       <c r="C54" s="1">
-        <v>29442693921</v>
+        <v>29023566615</v>
       </c>
       <c r="D54" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2679,13 +2679,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="1">
-        <v>160.7</v>
+        <v>158.414</v>
       </c>
       <c r="C55" s="1">
-        <v>125723634344</v>
+        <v>126952559630</v>
       </c>
       <c r="D55" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2693,10 +2693,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="1">
-        <v>1526.85</v>
+        <v>1533.191</v>
       </c>
       <c r="C56" s="1">
-        <v>33164945131</v>
+        <v>32914728682</v>
       </c>
       <c r="D56" s="1">
         <v>12</v>
@@ -2707,13 +2707,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="1">
-        <v>236.36</v>
+        <v>238.86</v>
       </c>
       <c r="C57" s="1">
-        <v>141526356448</v>
+        <v>137362563517</v>
       </c>
       <c r="D57" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2721,10 +2721,10 @@
         <v>60</v>
       </c>
       <c r="B58" s="1">
-        <v>42.48</v>
+        <v>42.429</v>
       </c>
       <c r="C58" s="1">
-        <v>357225522735</v>
+        <v>353199214585</v>
       </c>
       <c r="D58" s="1">
         <v>466</v>
@@ -2735,13 +2735,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="1">
-        <v>88.98999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="C59" s="1">
-        <v>43576929563</v>
+        <v>45095925187</v>
       </c>
       <c r="D59" s="1">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2749,13 +2749,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="1">
-        <v>118.37</v>
+        <v>117.86</v>
       </c>
       <c r="C60" s="1">
-        <v>30166200678</v>
+        <v>30045734379</v>
       </c>
       <c r="D60" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2763,13 +2763,13 @@
         <v>63</v>
       </c>
       <c r="B61" s="1">
-        <v>256.24</v>
+        <v>253.86</v>
       </c>
       <c r="C61" s="1">
-        <v>74635353463</v>
+        <v>75961145806</v>
       </c>
       <c r="D61" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2777,13 +2777,13 @@
         <v>64</v>
       </c>
       <c r="B62" s="1">
-        <v>31.68</v>
+        <v>33.5</v>
       </c>
       <c r="C62" s="1">
-        <v>15469580979</v>
+        <v>16476222573</v>
       </c>
       <c r="D62" s="1">
-        <v>625</v>
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2791,13 +2791,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="1">
-        <v>77.87</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>37361917903</v>
+        <v>37547672426</v>
       </c>
       <c r="D63" s="1">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2805,13 +2805,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="1">
-        <v>277.27</v>
+        <v>274.47</v>
       </c>
       <c r="C64" s="1">
-        <v>42994707436</v>
+        <v>40688761351</v>
       </c>
       <c r="D64" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2819,10 +2819,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="1">
-        <v>638</v>
+        <v>619.46</v>
       </c>
       <c r="C65" s="1">
-        <v>18583736424</v>
+        <v>18419803762</v>
       </c>
       <c r="D65" s="1">
         <v>31</v>
@@ -2833,13 +2833,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>52.65</v>
+        <v>50.5</v>
       </c>
       <c r="C66" s="1">
-        <v>46138314463</v>
+        <v>44718159844</v>
       </c>
       <c r="D66" s="1">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2847,13 +2847,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>2557.33</v>
+        <v>2422.97</v>
       </c>
       <c r="C67" s="1">
-        <v>101107810116</v>
+        <v>101074974590</v>
       </c>
       <c r="D67" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2861,13 +2861,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="1">
-        <v>22.05</v>
+        <v>22.503</v>
       </c>
       <c r="C68" s="1">
-        <v>22945131149</v>
+        <v>23205160265</v>
       </c>
       <c r="D68" s="1">
-        <v>898</v>
+        <v>879</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2875,13 +2875,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="1">
-        <v>844.8200000000001</v>
+        <v>871.0700000000001</v>
       </c>
       <c r="C69" s="1">
-        <v>129701278800</v>
+        <v>127983162744</v>
       </c>
       <c r="D69" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2889,13 +2889,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="1">
-        <v>94.98999999999999</v>
+        <v>95.37</v>
       </c>
       <c r="C70" s="1">
-        <v>31447653366</v>
+        <v>31701229609</v>
       </c>
       <c r="D70" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2903,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="B71" s="1">
-        <v>66.42</v>
+        <v>66.45</v>
       </c>
       <c r="C71" s="1">
-        <v>144136502375</v>
+        <v>143747714126</v>
       </c>
       <c r="D71" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2917,13 +2917,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="1">
-        <v>167.24</v>
+        <v>164.54</v>
       </c>
       <c r="C72" s="1">
-        <v>18585847395</v>
+        <v>19730868380</v>
       </c>
       <c r="D72" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2931,13 +2931,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="1">
-        <v>289.86</v>
+        <v>285.83</v>
       </c>
       <c r="C73" s="1">
-        <v>658207953767</v>
+        <v>659532172900</v>
       </c>
       <c r="D73" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2945,13 +2945,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="1">
-        <v>45.09</v>
+        <v>44.26</v>
       </c>
       <c r="C74" s="1">
-        <v>64486615867</v>
+        <v>62797672555</v>
       </c>
       <c r="D74" s="1">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2959,13 +2959,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="1">
-        <v>51.38</v>
+        <v>48.57</v>
       </c>
       <c r="C75" s="1">
-        <v>12012965604</v>
+        <v>11671418202</v>
       </c>
       <c r="D75" s="1">
-        <v>385</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2973,13 +2973,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="1">
-        <v>110.84</v>
+        <v>110.54</v>
       </c>
       <c r="C76" s="1">
-        <v>17214811860</v>
+        <v>17255251920</v>
       </c>
       <c r="D76" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2987,13 +2987,13 @@
         <v>79</v>
       </c>
       <c r="B77" s="1">
-        <v>74.81</v>
+        <v>72.98</v>
       </c>
       <c r="C77" s="1">
-        <v>152416013882</v>
+        <v>156107226406</v>
       </c>
       <c r="D77" s="1">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3001,13 +3001,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="1">
-        <v>39.3</v>
+        <v>37.511</v>
       </c>
       <c r="C78" s="1">
-        <v>18825170834</v>
+        <v>18425946906</v>
       </c>
       <c r="D78" s="1">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3015,13 +3015,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>62.26</v>
+        <v>62.911</v>
       </c>
       <c r="C79" s="1">
-        <v>18503930009</v>
+        <v>18337406725</v>
       </c>
       <c r="D79" s="1">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3029,13 +3029,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="1">
-        <v>45.36</v>
+        <v>43.556</v>
       </c>
       <c r="C80" s="1">
-        <v>39181206012</v>
+        <v>37879641630</v>
       </c>
       <c r="D80" s="1">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3043,13 +3043,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="1">
-        <v>234.16</v>
+        <v>242.225</v>
       </c>
       <c r="C81" s="1">
-        <v>128031134766</v>
+        <v>131464177984</v>
       </c>
       <c r="D81" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3057,10 +3057,10 @@
         <v>84</v>
       </c>
       <c r="B82" s="1">
-        <v>177.89</v>
+        <v>177.18</v>
       </c>
       <c r="C82" s="1">
-        <v>79852442278</v>
+        <v>78461757799</v>
       </c>
       <c r="D82" s="1">
         <v>111</v>
@@ -3071,13 +3071,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="1">
-        <v>111.43</v>
+        <v>109.56</v>
       </c>
       <c r="C83" s="1">
-        <v>11414530456</v>
+        <v>11716677266</v>
       </c>
       <c r="D83" s="1">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3085,13 +3085,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="1">
-        <v>88.11</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C84" s="1">
-        <v>29947211571</v>
+        <v>29049890594</v>
       </c>
       <c r="D84" s="1">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3099,13 +3099,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="1">
-        <v>188</v>
+        <v>186.22</v>
       </c>
       <c r="C85" s="1">
-        <v>84146270009</v>
+        <v>80308817999</v>
       </c>
       <c r="D85" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3113,13 +3113,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="1">
-        <v>28.1</v>
+        <v>27.08</v>
       </c>
       <c r="C86" s="1">
-        <v>31063291955</v>
+        <v>30695660597</v>
       </c>
       <c r="D86" s="1">
-        <v>704</v>
+        <v>731</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3127,13 +3127,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="1">
-        <v>130.2</v>
+        <v>128.337</v>
       </c>
       <c r="C87" s="1">
-        <v>36825066674</v>
+        <v>36560179868</v>
       </c>
       <c r="D87" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3141,13 +3141,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="1">
-        <v>186.3</v>
+        <v>179.93</v>
       </c>
       <c r="C88" s="1">
-        <v>25947617426</v>
+        <v>24851193972</v>
       </c>
       <c r="D88" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3155,13 +3155,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="1">
-        <v>162.8</v>
+        <v>167.65</v>
       </c>
       <c r="C89" s="1">
-        <v>18641711427</v>
+        <v>18939736490</v>
       </c>
       <c r="D89" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3169,10 +3169,10 @@
         <v>92</v>
       </c>
       <c r="B90" s="1">
-        <v>78.59999999999999</v>
+        <v>78.86</v>
       </c>
       <c r="C90" s="1">
-        <v>23583245061</v>
+        <v>23247549476</v>
       </c>
       <c r="D90" s="1">
         <v>251</v>
@@ -3183,13 +3183,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="1">
-        <v>51.84</v>
+        <v>50</v>
       </c>
       <c r="C91" s="1">
-        <v>10929351899</v>
+        <v>11070766069</v>
       </c>
       <c r="D91" s="1">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3197,13 +3197,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="1">
-        <v>48.92</v>
+        <v>50.01</v>
       </c>
       <c r="C92" s="1">
-        <v>20596031374</v>
+        <v>20568038220</v>
       </c>
       <c r="D92" s="1">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3211,13 +3211,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="1">
-        <v>89.48</v>
+        <v>93.17</v>
       </c>
       <c r="C93" s="1">
-        <v>21773320452</v>
+        <v>22399636669</v>
       </c>
       <c r="D93" s="1">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3225,13 +3225,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="1">
-        <v>103.81</v>
+        <v>101.165</v>
       </c>
       <c r="C94" s="1">
-        <v>13510339267</v>
+        <v>13438943799</v>
       </c>
       <c r="D94" s="1">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3239,10 +3239,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="1">
-        <v>699.25</v>
+        <v>683.72</v>
       </c>
       <c r="C95" s="1">
-        <v>129261282203</v>
+        <v>130168721912</v>
       </c>
       <c r="D95" s="1">
         <v>28</v>
@@ -3253,13 +3253,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="1">
-        <v>261.3</v>
+        <v>266.42</v>
       </c>
       <c r="C96" s="1">
-        <v>91762342018</v>
+        <v>93324077477</v>
       </c>
       <c r="D96" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3267,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="1">
-        <v>116.8</v>
+        <v>117.76</v>
       </c>
       <c r="C97" s="1">
-        <v>19123763728</v>
+        <v>19285676574</v>
       </c>
       <c r="D97" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3281,13 +3281,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="1">
-        <v>84.16</v>
+        <v>84.34</v>
       </c>
       <c r="C98" s="1">
-        <v>68741727922</v>
+        <v>70122916422</v>
       </c>
       <c r="D98" s="1">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3295,13 +3295,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="1">
-        <v>182.85</v>
+        <v>190.315</v>
       </c>
       <c r="C99" s="1">
-        <v>23224663194</v>
+        <v>23574093129</v>
       </c>
       <c r="D99" s="1">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3309,13 +3309,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="1">
-        <v>76.58</v>
+        <v>80</v>
       </c>
       <c r="C100" s="1">
-        <v>10879098963</v>
+        <v>10741436738</v>
       </c>
       <c r="D100" s="1">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3323,13 +3323,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="1">
-        <v>58.77</v>
+        <v>56.85</v>
       </c>
       <c r="C101" s="1">
-        <v>271003428461</v>
+        <v>270744899091</v>
       </c>
       <c r="D101" s="1">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3337,13 +3337,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="1">
-        <v>212.7</v>
+        <v>208.216</v>
       </c>
       <c r="C102" s="1">
-        <v>75387146675</v>
+        <v>73165875173</v>
       </c>
       <c r="D102" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3351,13 +3351,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="1">
-        <v>1541.9</v>
+        <v>1506.01</v>
       </c>
       <c r="C103" s="1">
-        <v>42570156923</v>
+        <v>42527564970</v>
       </c>
       <c r="D103" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3365,13 +3365,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="1">
-        <v>256.53</v>
+        <v>258.82</v>
       </c>
       <c r="C104" s="1">
-        <v>37325532699</v>
+        <v>38100162556</v>
       </c>
       <c r="D104" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3379,13 +3379,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="1">
-        <v>65.65000000000001</v>
+        <v>66.94</v>
       </c>
       <c r="C105" s="1">
-        <v>18938867331</v>
+        <v>19320864256</v>
       </c>
       <c r="D105" s="1">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3393,13 +3393,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="1">
-        <v>63.3</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="C106" s="1">
-        <v>37192203204</v>
+        <v>37480393468</v>
       </c>
       <c r="D106" s="1">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3407,13 +3407,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="1">
-        <v>25.31</v>
+        <v>25.78</v>
       </c>
       <c r="C107" s="1">
-        <v>13700755128</v>
+        <v>13572890703</v>
       </c>
       <c r="D107" s="1">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3421,10 +3421,10 @@
         <v>110</v>
       </c>
       <c r="B108" s="1">
-        <v>153.26</v>
+        <v>153.15</v>
       </c>
       <c r="C108" s="1">
-        <v>69662265289</v>
+        <v>71200714695</v>
       </c>
       <c r="D108" s="1">
         <v>129</v>
@@ -3435,13 +3435,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="1">
-        <v>17.19</v>
+        <v>17.47</v>
       </c>
       <c r="C109" s="1">
-        <v>6865999678</v>
+        <v>7127404155</v>
       </c>
       <c r="D109" s="1">
-        <v>1151</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3449,13 +3449,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="1">
-        <v>418.52</v>
+        <v>430.141</v>
       </c>
       <c r="C110" s="1">
-        <v>22267044789</v>
+        <v>22416148294</v>
       </c>
       <c r="D110" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3463,13 +3463,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="1">
-        <v>54.72</v>
+        <v>55.4</v>
       </c>
       <c r="C111" s="1">
-        <v>71780528727</v>
+        <v>72027325493</v>
       </c>
       <c r="D111" s="1">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3477,13 +3477,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="1">
-        <v>380.75</v>
+        <v>382.7</v>
       </c>
       <c r="C112" s="1">
-        <v>171281394866</v>
+        <v>170428099714</v>
       </c>
       <c r="D112" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3491,13 +3491,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="1">
-        <v>10.49</v>
+        <v>10.389</v>
       </c>
       <c r="C113" s="1">
-        <v>8142854159</v>
+        <v>7695956521</v>
       </c>
       <c r="D113" s="1">
-        <v>1887</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3505,13 +3505,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="1">
-        <v>50.7</v>
+        <v>50.22</v>
       </c>
       <c r="C114" s="1">
-        <v>14771528312</v>
+        <v>15128435033</v>
       </c>
       <c r="D114" s="1">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3519,13 +3519,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="1">
-        <v>130.3</v>
+        <v>124.43</v>
       </c>
       <c r="C115" s="1">
-        <v>29416413918</v>
+        <v>29690698806</v>
       </c>
       <c r="D115" s="1">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3533,13 +3533,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="1">
-        <v>225.32</v>
+        <v>219.627</v>
       </c>
       <c r="C116" s="1">
-        <v>209120741157</v>
+        <v>207189564312</v>
       </c>
       <c r="D116" s="1">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3547,13 +3547,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="1">
-        <v>52.57</v>
+        <v>50.839</v>
       </c>
       <c r="C117" s="1">
-        <v>221185278053</v>
+        <v>213736632134</v>
       </c>
       <c r="D117" s="1">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3561,13 +3561,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="1">
-        <v>104.18</v>
+        <v>105.75</v>
       </c>
       <c r="C118" s="1">
-        <v>79529333603</v>
+        <v>77615573454</v>
       </c>
       <c r="D118" s="1">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3575,13 +3575,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="1">
-        <v>359.4</v>
+        <v>351.68</v>
       </c>
       <c r="C119" s="1">
-        <v>38181461312</v>
+        <v>38327804363</v>
       </c>
       <c r="D119" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="1">
-        <v>12227031186</v>
+        <v>12320462299</v>
       </c>
       <c r="D120" s="1">
         <v>1800</v>
@@ -3603,13 +3603,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="1">
-        <v>83.2</v>
+        <v>82.009</v>
       </c>
       <c r="C121" s="1">
-        <v>44232730203</v>
+        <v>43650470750</v>
       </c>
       <c r="D121" s="1">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3617,13 +3617,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="1">
-        <v>50.92</v>
+        <v>50.87</v>
       </c>
       <c r="C122" s="1">
-        <v>38413652333</v>
+        <v>38355538811</v>
       </c>
       <c r="D122" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3631,13 +3631,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="1">
-        <v>125.8</v>
+        <v>123.69</v>
       </c>
       <c r="C123" s="1">
-        <v>15729777701</v>
+        <v>15004336426</v>
       </c>
       <c r="D123" s="1">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3645,13 +3645,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="1">
-        <v>80.13</v>
+        <v>83.64</v>
       </c>
       <c r="C124" s="1">
-        <v>102676184418</v>
+        <v>110843553348</v>
       </c>
       <c r="D124" s="1">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3659,13 +3659,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="1">
-        <v>108.54</v>
+        <v>111.118</v>
       </c>
       <c r="C125" s="1">
-        <v>208903147247</v>
+        <v>204501519800</v>
       </c>
       <c r="D125" s="1">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3673,13 +3673,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="1">
-        <v>66.2</v>
+        <v>68.5</v>
       </c>
       <c r="C126" s="1">
-        <v>13043183171</v>
+        <v>12984024758</v>
       </c>
       <c r="D126" s="1">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3687,13 +3687,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="1">
-        <v>81.03</v>
+        <v>82.41200000000001</v>
       </c>
       <c r="C127" s="1">
-        <v>66979603381</v>
+        <v>66823305066</v>
       </c>
       <c r="D127" s="1">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3701,13 +3701,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="1">
-        <v>47.76</v>
+        <v>46.09</v>
       </c>
       <c r="C128" s="1">
-        <v>29807107083</v>
+        <v>28800756135</v>
       </c>
       <c r="D128" s="1">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3715,13 +3715,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="1">
-        <v>78.41</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="C129" s="1">
-        <v>43421586558</v>
+        <v>44225424481</v>
       </c>
       <c r="D129" s="1">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3729,10 +3729,10 @@
         <v>132</v>
       </c>
       <c r="B130" s="1">
-        <v>390.59</v>
+        <v>388.42</v>
       </c>
       <c r="C130" s="1">
-        <v>118042739829</v>
+        <v>122997266934</v>
       </c>
       <c r="D130" s="1">
         <v>50</v>
@@ -3743,13 +3743,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="1">
-        <v>118.67</v>
+        <v>115.34</v>
       </c>
       <c r="C131" s="1">
-        <v>36505813908</v>
+        <v>35367697675</v>
       </c>
       <c r="D131" s="1">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3757,13 +3757,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="1">
-        <v>217.19</v>
+        <v>221.85</v>
       </c>
       <c r="C132" s="1">
-        <v>53890277836</v>
+        <v>53150072765</v>
       </c>
       <c r="D132" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3771,13 +3771,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="1">
-        <v>138.56</v>
+        <v>140.79</v>
       </c>
       <c r="C133" s="1">
-        <v>18087051320</v>
+        <v>17976812431</v>
       </c>
       <c r="D133" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3785,13 +3785,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="1">
-        <v>104.05</v>
+        <v>102.066</v>
       </c>
       <c r="C134" s="1">
-        <v>37728022378</v>
+        <v>37575714632</v>
       </c>
       <c r="D134" s="1">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3799,13 +3799,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="1">
-        <v>265.9</v>
+        <v>262.75</v>
       </c>
       <c r="C135" s="1">
-        <v>183596164436</v>
+        <v>187371796714</v>
       </c>
       <c r="D135" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3813,13 +3813,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="1">
-        <v>191.07</v>
+        <v>185.71</v>
       </c>
       <c r="C136" s="1">
-        <v>352325977154</v>
+        <v>344667705402</v>
       </c>
       <c r="D136" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3827,13 +3827,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="1">
-        <v>37.39</v>
+        <v>37.36</v>
       </c>
       <c r="C137" s="1">
-        <v>17629237636</v>
+        <v>17304895552</v>
       </c>
       <c r="D137" s="1">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3841,13 +3841,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="1">
-        <v>32.17</v>
+        <v>32.63</v>
       </c>
       <c r="C138" s="1">
-        <v>17682031023</v>
+        <v>17936111439</v>
       </c>
       <c r="D138" s="1">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3855,13 +3855,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="1">
-        <v>44.62</v>
+        <v>45.94</v>
       </c>
       <c r="C139" s="1">
-        <v>23426720555</v>
+        <v>24264115255</v>
       </c>
       <c r="D139" s="1">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3869,13 +3869,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="1">
-        <v>156.22</v>
+        <v>153.94</v>
       </c>
       <c r="C140" s="1">
-        <v>42978673945</v>
+        <v>42883916402</v>
       </c>
       <c r="D140" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3883,10 +3883,10 @@
         <v>143</v>
       </c>
       <c r="B141" s="1">
-        <v>119.01</v>
+        <v>119.14</v>
       </c>
       <c r="C141" s="1">
-        <v>27678123987</v>
+        <v>27265816084</v>
       </c>
       <c r="D141" s="1">
         <v>166</v>
@@ -3897,10 +3897,10 @@
         <v>144</v>
       </c>
       <c r="B142" s="1">
-        <v>156.09</v>
+        <v>156.52</v>
       </c>
       <c r="C142" s="1">
-        <v>21611147608</v>
+        <v>21928261725</v>
       </c>
       <c r="D142" s="1">
         <v>126</v>
@@ -3911,13 +3911,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="1">
-        <v>66.79000000000001</v>
+        <v>69.37</v>
       </c>
       <c r="C143" s="1">
-        <v>49075352748</v>
+        <v>50399615768</v>
       </c>
       <c r="D143" s="1">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3925,10 +3925,10 @@
         <v>146</v>
       </c>
       <c r="B144" s="1">
-        <v>434.93</v>
+        <v>438.7</v>
       </c>
       <c r="C144" s="1">
-        <v>17104882786</v>
+        <v>17473700133</v>
       </c>
       <c r="D144" s="1">
         <v>45</v>
@@ -3939,13 +3939,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="1">
-        <v>46.77</v>
+        <v>47.8</v>
       </c>
       <c r="C145" s="1">
-        <v>17846768282</v>
+        <v>17752653172</v>
       </c>
       <c r="D145" s="1">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3953,13 +3953,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="1">
-        <v>146.2</v>
+        <v>145.5</v>
       </c>
       <c r="C146" s="1">
-        <v>19506581448</v>
+        <v>19099950374</v>
       </c>
       <c r="D146" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3967,10 +3967,10 @@
         <v>149</v>
       </c>
       <c r="B147" s="1">
-        <v>140.61</v>
+        <v>140.7</v>
       </c>
       <c r="C147" s="1">
-        <v>27804534806</v>
+        <v>27937991289</v>
       </c>
       <c r="D147" s="1">
         <v>140</v>
@@ -3981,13 +3981,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="1">
-        <v>101.19</v>
+        <v>101.613</v>
       </c>
       <c r="C148" s="1">
-        <v>78322680635</v>
+        <v>78761095972</v>
       </c>
       <c r="D148" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3995,13 +3995,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="1">
-        <v>123.59</v>
+        <v>127.85</v>
       </c>
       <c r="C149" s="1">
-        <v>13220358571</v>
+        <v>13157446046</v>
       </c>
       <c r="D149" s="1">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4009,13 +4009,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="1">
-        <v>24.03</v>
+        <v>23.48</v>
       </c>
       <c r="C150" s="1">
-        <v>16606135186</v>
+        <v>16241950494</v>
       </c>
       <c r="D150" s="1">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4023,13 +4023,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="1">
-        <v>34.05</v>
+        <v>33.714</v>
       </c>
       <c r="C151" s="1">
-        <v>8759113161</v>
+        <v>8630419104</v>
       </c>
       <c r="D151" s="1">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4037,10 +4037,10 @@
         <v>154</v>
       </c>
       <c r="B152" s="1">
-        <v>380.79</v>
+        <v>377.24</v>
       </c>
       <c r="C152" s="1">
-        <v>36885050345</v>
+        <v>36915184265</v>
       </c>
       <c r="D152" s="1">
         <v>52</v>
@@ -4051,13 +4051,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="1">
-        <v>146.54</v>
+        <v>143.28</v>
       </c>
       <c r="C153" s="1">
-        <v>40899072853</v>
+        <v>39334164310</v>
       </c>
       <c r="D153" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4065,13 +4065,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="1">
-        <v>58.74</v>
+        <v>60.3</v>
       </c>
       <c r="C154" s="1">
-        <v>39903896763</v>
+        <v>41127047007</v>
       </c>
       <c r="D154" s="1">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4079,13 +4079,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="1">
-        <v>232.98</v>
+        <v>238.313</v>
       </c>
       <c r="C155" s="1">
-        <v>68074100208</v>
+        <v>67075273241</v>
       </c>
       <c r="D155" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4093,13 +4093,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="1">
-        <v>80.11</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C156" s="1">
-        <v>27619713525</v>
+        <v>27160089648</v>
       </c>
       <c r="D156" s="1">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4107,13 +4107,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="1">
-        <v>234.84</v>
+        <v>241</v>
       </c>
       <c r="C157" s="1">
-        <v>28655294227</v>
+        <v>29739880312</v>
       </c>
       <c r="D157" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4121,10 +4121,10 @@
         <v>160</v>
       </c>
       <c r="B158" s="1">
-        <v>61.57</v>
+        <v>61.6</v>
       </c>
       <c r="C158" s="1">
-        <v>23530411014</v>
+        <v>22631854975</v>
       </c>
       <c r="D158" s="1">
         <v>321</v>
@@ -4135,13 +4135,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="1">
-        <v>303.18</v>
+        <v>308</v>
       </c>
       <c r="C159" s="1">
-        <v>105487485330</v>
+        <v>109452137145</v>
       </c>
       <c r="D159" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4149,13 +4149,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="1">
-        <v>118.48</v>
+        <v>122.03</v>
       </c>
       <c r="C160" s="1">
-        <v>16288195043</v>
+        <v>17009384232</v>
       </c>
       <c r="D160" s="1">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4163,13 +4163,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="1">
-        <v>92.22</v>
+        <v>91.721</v>
       </c>
       <c r="C161" s="1">
-        <v>54738742892</v>
+        <v>56700561227</v>
       </c>
       <c r="D161" s="1">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4177,13 +4177,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="1">
-        <v>76.43000000000001</v>
+        <v>75.748</v>
       </c>
       <c r="C162" s="1">
-        <v>45631615457</v>
+        <v>43943239974</v>
       </c>
       <c r="D162" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4191,10 +4191,10 @@
         <v>165</v>
       </c>
       <c r="B163" s="1">
-        <v>713.04</v>
+        <v>726.7</v>
       </c>
       <c r="C163" s="1">
-        <v>65384787934</v>
+        <v>64678153531</v>
       </c>
       <c r="D163" s="1">
         <v>27</v>
@@ -4205,13 +4205,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="1">
-        <v>76.7</v>
+        <v>75.03</v>
       </c>
       <c r="C164" s="1">
-        <v>28099400974</v>
+        <v>28081348164</v>
       </c>
       <c r="D164" s="1">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4219,13 +4219,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="1">
-        <v>89.31</v>
+        <v>90.05</v>
       </c>
       <c r="C165" s="1">
-        <v>30120587099</v>
+        <v>30329965742</v>
       </c>
       <c r="D165" s="1">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4233,13 +4233,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="1">
-        <v>300.13</v>
+        <v>289.61</v>
       </c>
       <c r="C166" s="1">
-        <v>19007032992</v>
+        <v>19190337323</v>
       </c>
       <c r="D166" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4247,13 +4247,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="1">
-        <v>49.4</v>
+        <v>50.7</v>
       </c>
       <c r="C167" s="1">
-        <v>11128993882</v>
+        <v>11027309569</v>
       </c>
       <c r="D167" s="1">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4261,13 +4261,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="1">
-        <v>149.29</v>
+        <v>148.29</v>
       </c>
       <c r="C168" s="1">
-        <v>60346113060</v>
+        <v>60426224787</v>
       </c>
       <c r="D168" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4275,13 +4275,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="1">
-        <v>114.13</v>
+        <v>113.61</v>
       </c>
       <c r="C169" s="1">
-        <v>22896790727</v>
+        <v>22196238275</v>
       </c>
       <c r="D169" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4289,13 +4289,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="1">
-        <v>65.12</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="C170" s="1">
-        <v>14593371179</v>
+        <v>15006386601</v>
       </c>
       <c r="D170" s="1">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4303,13 +4303,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="1">
-        <v>97.08</v>
+        <v>96.03</v>
       </c>
       <c r="C171" s="1">
-        <v>59788786288</v>
+        <v>59069659685</v>
       </c>
       <c r="D171" s="1">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4317,13 +4317,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="1">
-        <v>45.83</v>
+        <v>45.467</v>
       </c>
       <c r="C172" s="1">
-        <v>44411400606</v>
+        <v>45714712122</v>
       </c>
       <c r="D172" s="1">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4331,10 +4331,10 @@
         <v>175</v>
       </c>
       <c r="B173" s="1">
-        <v>115.35</v>
+        <v>115.626</v>
       </c>
       <c r="C173" s="1">
-        <v>19539196979</v>
+        <v>19387131776</v>
       </c>
       <c r="D173" s="1">
         <v>171</v>
@@ -4345,13 +4345,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="1">
-        <v>180.91</v>
+        <v>177.88</v>
       </c>
       <c r="C174" s="1">
-        <v>25468921556</v>
+        <v>25121724020</v>
       </c>
       <c r="D174" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4359,13 +4359,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="1">
-        <v>148.49</v>
+        <v>150.13</v>
       </c>
       <c r="C175" s="1">
-        <v>20102416149</v>
+        <v>20219444467</v>
       </c>
       <c r="D175" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4373,13 +4373,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="1">
-        <v>12.11</v>
+        <v>11.46</v>
       </c>
       <c r="C176" s="1">
-        <v>46056896404</v>
+        <v>46621039908</v>
       </c>
       <c r="D176" s="1">
-        <v>1635</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4387,13 +4387,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="1">
-        <v>84.72</v>
+        <v>80.286</v>
       </c>
       <c r="C177" s="1">
-        <v>15455087278</v>
+        <v>14790718342</v>
       </c>
       <c r="D177" s="1">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4401,10 +4401,10 @@
         <v>180</v>
       </c>
       <c r="B178" s="1">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C178" s="1">
-        <v>30544014682</v>
+        <v>30916427463</v>
       </c>
       <c r="D178" s="1">
         <v>366</v>
@@ -4415,10 +4415,10 @@
         <v>181</v>
       </c>
       <c r="B179" s="1">
-        <v>324.71</v>
+        <v>325.85</v>
       </c>
       <c r="C179" s="1">
-        <v>941318140542</v>
+        <v>906013319202</v>
       </c>
       <c r="D179" s="1">
         <v>60</v>
@@ -4429,13 +4429,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="1">
-        <v>110.3</v>
+        <v>110.98</v>
       </c>
       <c r="C180" s="1">
-        <v>15509828321</v>
+        <v>15278695903</v>
       </c>
       <c r="D180" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4443,13 +4443,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="1">
-        <v>39.89</v>
+        <v>40.573</v>
       </c>
       <c r="C181" s="1">
-        <v>59030170585</v>
+        <v>59073424504</v>
       </c>
       <c r="D181" s="1">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4457,13 +4457,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="1">
-        <v>317.37</v>
+        <v>304.35</v>
       </c>
       <c r="C182" s="1">
-        <v>81344621411</v>
+        <v>84351492487</v>
       </c>
       <c r="D182" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4471,13 +4471,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="1">
-        <v>40.14</v>
+        <v>38.31</v>
       </c>
       <c r="C183" s="1">
-        <v>21483857949</v>
+        <v>20821543351</v>
       </c>
       <c r="D183" s="1">
-        <v>493</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4485,13 +4485,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="1">
-        <v>184.2</v>
+        <v>186.13</v>
       </c>
       <c r="C184" s="1">
-        <v>11330771827</v>
+        <v>11280308968</v>
       </c>
       <c r="D184" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4499,13 +4499,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="1">
-        <v>156.11</v>
+        <v>153.79</v>
       </c>
       <c r="C185" s="1">
-        <v>96408343467</v>
+        <v>97194156682</v>
       </c>
       <c r="D185" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4513,13 +4513,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="1">
-        <v>122.21</v>
+        <v>122.77</v>
       </c>
       <c r="C186" s="1">
-        <v>83287316073</v>
+        <v>80025196812</v>
       </c>
       <c r="D186" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4527,13 +4527,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="1">
-        <v>41.1</v>
+        <v>42.554</v>
       </c>
       <c r="C187" s="1">
-        <v>29036641072</v>
+        <v>29295886893</v>
       </c>
       <c r="D187" s="1">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4541,13 +4541,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="1">
-        <v>61.02</v>
+        <v>59.75</v>
       </c>
       <c r="C188" s="1">
-        <v>8035151910</v>
+        <v>7806234643</v>
       </c>
       <c r="D188" s="1">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4555,10 +4555,10 @@
         <v>191</v>
       </c>
       <c r="B189" s="1">
-        <v>42.3</v>
+        <v>42.29</v>
       </c>
       <c r="C189" s="1">
-        <v>5391809956</v>
+        <v>5618425382</v>
       </c>
       <c r="D189" s="1">
         <v>468</v>
@@ -4569,10 +4569,10 @@
         <v>192</v>
       </c>
       <c r="B190" s="1">
-        <v>299.78</v>
+        <v>299.65</v>
       </c>
       <c r="C190" s="1">
-        <v>25135219137</v>
+        <v>25335310499</v>
       </c>
       <c r="D190" s="1">
         <v>66</v>
@@ -4583,13 +4583,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="1">
-        <v>123.49</v>
+        <v>124.16</v>
       </c>
       <c r="C191" s="1">
-        <v>15693249917</v>
+        <v>16005882695</v>
       </c>
       <c r="D191" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4597,13 +4597,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="1">
-        <v>36.73</v>
+        <v>36.64</v>
       </c>
       <c r="C192" s="1">
-        <v>22117543893</v>
+        <v>21953849769</v>
       </c>
       <c r="D192" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4611,10 +4611,10 @@
         <v>195</v>
       </c>
       <c r="B193" s="1">
-        <v>37.69</v>
+        <v>37.685</v>
       </c>
       <c r="C193" s="1">
-        <v>22135551962</v>
+        <v>22317262472</v>
       </c>
       <c r="D193" s="1">
         <v>525</v>
@@ -4625,13 +4625,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="1">
-        <v>185.68</v>
+        <v>187.19</v>
       </c>
       <c r="C194" s="1">
-        <v>32437833356</v>
+        <v>31959773849</v>
       </c>
       <c r="D194" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4639,13 +4639,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="1">
-        <v>117.11</v>
+        <v>115.83</v>
       </c>
       <c r="C195" s="1">
-        <v>8951553201</v>
+        <v>8918216351</v>
       </c>
       <c r="D195" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4653,13 +4653,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="1">
-        <v>7.89</v>
+        <v>8.012</v>
       </c>
       <c r="C196" s="1">
-        <v>3549927020</v>
+        <v>3604061275</v>
       </c>
       <c r="D196" s="1">
-        <v>2509</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4667,13 +4667,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="1">
-        <v>211.77</v>
+        <v>207.16</v>
       </c>
       <c r="C197" s="1">
-        <v>33285854418</v>
+        <v>34607787256</v>
       </c>
       <c r="D197" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4681,13 +4681,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="1">
-        <v>71.95</v>
+        <v>72.706</v>
       </c>
       <c r="C198" s="1">
-        <v>25020759637</v>
+        <v>25216359212</v>
       </c>
       <c r="D198" s="1">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4695,13 +4695,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="1">
-        <v>197.9</v>
+        <v>195.61</v>
       </c>
       <c r="C199" s="1">
-        <v>56126884257</v>
+        <v>55330342459</v>
       </c>
       <c r="D199" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4709,13 +4709,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="1">
-        <v>13.59</v>
+        <v>13.452</v>
       </c>
       <c r="C200" s="1">
-        <v>122226611375</v>
+        <v>115327487217</v>
       </c>
       <c r="D200" s="1">
-        <v>1457</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4723,13 +4723,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="1">
-        <v>66.2</v>
+        <v>68.509</v>
       </c>
       <c r="C201" s="1">
-        <v>83821266038</v>
+        <v>84337964730</v>
       </c>
       <c r="D201" s="1">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4737,13 +4737,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="1">
-        <v>63.1</v>
+        <v>63.311</v>
       </c>
       <c r="C202" s="1">
-        <v>37827996263</v>
+        <v>38142616343</v>
       </c>
       <c r="D202" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4751,13 +4751,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="1">
-        <v>106.07</v>
+        <v>105.33</v>
       </c>
       <c r="C203" s="1">
-        <v>12255105904</v>
+        <v>12380775138</v>
       </c>
       <c r="D203" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4765,13 +4765,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="1">
-        <v>45.9</v>
+        <v>46.913</v>
       </c>
       <c r="C204" s="1">
-        <v>38191093057</v>
+        <v>39001566084</v>
       </c>
       <c r="D204" s="1">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4779,13 +4779,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="1">
-        <v>59.81</v>
+        <v>56.81</v>
       </c>
       <c r="C205" s="1">
-        <v>84249967100</v>
+        <v>80505168101</v>
       </c>
       <c r="D205" s="1">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4793,13 +4793,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="1">
-        <v>2505.66</v>
+        <v>2365.51</v>
       </c>
       <c r="C206" s="1">
-        <v>1685384316621</v>
+        <v>1612872499669</v>
       </c>
       <c r="D206" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4807,10 +4807,10 @@
         <v>209</v>
       </c>
       <c r="B207" s="1">
-        <v>2429.89</v>
+        <v>2346.1</v>
       </c>
       <c r="C207" s="1">
-        <v>1675811203759</v>
+        <v>1634378825325</v>
       </c>
       <c r="D207" s="1">
         <v>8</v>
@@ -4821,13 +4821,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="1">
-        <v>132.31</v>
+        <v>134.76</v>
       </c>
       <c r="C208" s="1">
-        <v>18566628797</v>
+        <v>18847045995</v>
       </c>
       <c r="D208" s="1">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4835,13 +4835,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="1">
-        <v>221.46</v>
+        <v>209</v>
       </c>
       <c r="C209" s="1">
-        <v>65392310962</v>
+        <v>63099162438</v>
       </c>
       <c r="D209" s="1">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4849,13 +4849,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="1">
-        <v>35.91</v>
+        <v>35.12</v>
       </c>
       <c r="C210" s="1">
-        <v>13734779020</v>
+        <v>13240399846</v>
       </c>
       <c r="D210" s="1">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4863,13 +4863,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="1">
-        <v>141.27</v>
+        <v>143.086</v>
       </c>
       <c r="C211" s="1">
-        <v>27011693049</v>
+        <v>27559042487</v>
       </c>
       <c r="D211" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4877,13 +4877,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="1">
-        <v>364.01</v>
+        <v>357.27</v>
       </c>
       <c r="C212" s="1">
-        <v>124088091894</v>
+        <v>121305568775</v>
       </c>
       <c r="D212" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4891,13 +4891,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="1">
-        <v>452.83</v>
+        <v>472.66</v>
       </c>
       <c r="C213" s="1">
-        <v>23527667105</v>
+        <v>24329953880</v>
       </c>
       <c r="D213" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4905,13 +4905,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="1">
-        <v>20.94</v>
+        <v>21.06</v>
       </c>
       <c r="C214" s="1">
-        <v>18446121003</v>
+        <v>18634217597</v>
       </c>
       <c r="D214" s="1">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4919,13 +4919,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="1">
-        <v>102.19</v>
+        <v>101.493</v>
       </c>
       <c r="C215" s="1">
-        <v>14249778409</v>
+        <v>13580219182</v>
       </c>
       <c r="D215" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4933,13 +4933,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="1">
-        <v>15.79</v>
+        <v>15.44</v>
       </c>
       <c r="C216" s="1">
-        <v>15944081919</v>
+        <v>15761917641</v>
       </c>
       <c r="D216" s="1">
-        <v>1254</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4947,13 +4947,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="1">
-        <v>21.83</v>
+        <v>22</v>
       </c>
       <c r="C217" s="1">
-        <v>7673038585</v>
+        <v>7650352381</v>
       </c>
       <c r="D217" s="1">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4961,10 +4961,10 @@
         <v>220</v>
       </c>
       <c r="B218" s="1">
-        <v>209.99</v>
+        <v>209.006</v>
       </c>
       <c r="C218" s="1">
-        <v>71542864068</v>
+        <v>72123403312</v>
       </c>
       <c r="D218" s="1">
         <v>94</v>
@@ -4975,13 +4975,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="1">
-        <v>333.45</v>
+        <v>343.94</v>
       </c>
       <c r="C219" s="1">
-        <v>369144450620</v>
+        <v>369054069792</v>
       </c>
       <c r="D219" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4989,13 +4989,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="1">
-        <v>80.5</v>
+        <v>78.52</v>
       </c>
       <c r="C220" s="1">
-        <v>24160369672</v>
+        <v>23867660818</v>
       </c>
       <c r="D220" s="1">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5003,13 +5003,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="1">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="C221" s="1">
-        <v>6039309288</v>
+        <v>5963169369</v>
       </c>
       <c r="D221" s="1">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5017,13 +5017,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="1">
-        <v>67.55</v>
+        <v>68.65300000000001</v>
       </c>
       <c r="C222" s="1">
-        <v>24297519485</v>
+        <v>24299182416</v>
       </c>
       <c r="D222" s="1">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5031,13 +5031,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="1">
-        <v>218.77</v>
+        <v>216</v>
       </c>
       <c r="C223" s="1">
-        <v>8870570827</v>
+        <v>8833517999</v>
       </c>
       <c r="D223" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5045,13 +5045,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="1">
-        <v>132.52</v>
+        <v>134.25</v>
       </c>
       <c r="C224" s="1">
-        <v>36855900129</v>
+        <v>35870868388</v>
       </c>
       <c r="D224" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5059,13 +5059,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="1">
-        <v>67.29000000000001</v>
+        <v>67.538</v>
       </c>
       <c r="C225" s="1">
-        <v>17529276578</v>
+        <v>16820473682</v>
       </c>
       <c r="D225" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5073,13 +5073,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="1">
-        <v>232.5</v>
+        <v>229.4</v>
       </c>
       <c r="C226" s="1">
-        <v>158226610922</v>
+        <v>162842791530</v>
       </c>
       <c r="D226" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5087,13 +5087,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="1">
-        <v>16.37</v>
+        <v>16.17</v>
       </c>
       <c r="C227" s="1">
-        <v>21374676356</v>
+        <v>21205280613</v>
       </c>
       <c r="D227" s="1">
-        <v>1209</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5101,13 +5101,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="1">
-        <v>34.59</v>
+        <v>34.43</v>
       </c>
       <c r="C228" s="1">
-        <v>43015149964</v>
+        <v>43836513665</v>
       </c>
       <c r="D228" s="1">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5115,13 +5115,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="1">
-        <v>23.26</v>
+        <v>22.614</v>
       </c>
       <c r="C229" s="1">
-        <v>4217035014</v>
+        <v>4181964521</v>
       </c>
       <c r="D229" s="1">
-        <v>851</v>
+        <v>875</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5129,13 +5129,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="1">
-        <v>48.1</v>
+        <v>48.319</v>
       </c>
       <c r="C230" s="1">
-        <v>26433792818</v>
+        <v>26590981589</v>
       </c>
       <c r="D230" s="1">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5143,13 +5143,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="1">
-        <v>77.43000000000001</v>
+        <v>81</v>
       </c>
       <c r="C231" s="1">
-        <v>10630151933</v>
+        <v>11651202838</v>
       </c>
       <c r="D231" s="1">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5157,13 +5157,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="1">
-        <v>18.93</v>
+        <v>17.52</v>
       </c>
       <c r="C232" s="1">
-        <v>13117612767</v>
+        <v>12826457513</v>
       </c>
       <c r="D232" s="1">
-        <v>1046</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5171,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="1">
-        <v>169.83</v>
+        <v>172.507</v>
       </c>
       <c r="C233" s="1">
-        <v>36422059281</v>
+        <v>34956083610</v>
       </c>
       <c r="D233" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5185,13 +5185,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="1">
-        <v>465.1</v>
+        <v>477.95</v>
       </c>
       <c r="C234" s="1">
-        <v>60039554601</v>
+        <v>60509788445</v>
       </c>
       <c r="D234" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5199,13 +5199,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="1">
-        <v>33.5</v>
+        <v>32.81</v>
       </c>
       <c r="C235" s="1">
-        <v>14407636663</v>
+        <v>14396199010</v>
       </c>
       <c r="D235" s="1">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5213,13 +5213,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="1">
-        <v>147.03</v>
+        <v>147.91</v>
       </c>
       <c r="C236" s="1">
-        <v>135002701609</v>
+        <v>131111921868</v>
       </c>
       <c r="D236" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5227,13 +5227,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="1">
-        <v>115.58</v>
+        <v>114.35</v>
       </c>
       <c r="C237" s="1">
-        <v>67763526549</v>
+        <v>67234247284</v>
       </c>
       <c r="D237" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5241,13 +5241,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="1">
-        <v>552.37</v>
+        <v>540.49</v>
       </c>
       <c r="C238" s="1">
-        <v>47623023488</v>
+        <v>45374038851</v>
       </c>
       <c r="D238" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5255,13 +5255,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="1">
-        <v>223.6</v>
+        <v>238.09</v>
       </c>
       <c r="C239" s="1">
-        <v>17723121380</v>
+        <v>17479818984</v>
       </c>
       <c r="D239" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5269,13 +5269,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="1">
-        <v>148.93</v>
+        <v>152.15</v>
       </c>
       <c r="C240" s="1">
-        <v>36415515154</v>
+        <v>37177559443</v>
       </c>
       <c r="D240" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5283,13 +5283,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="1">
-        <v>392.9</v>
+        <v>381.7</v>
       </c>
       <c r="C241" s="1">
-        <v>58878219812</v>
+        <v>55560456135</v>
       </c>
       <c r="D241" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5297,13 +5297,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="1">
-        <v>87.52</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C242" s="1">
-        <v>19101649023</v>
+        <v>18569924880</v>
       </c>
       <c r="D242" s="1">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5311,13 +5311,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="1">
-        <v>113.2</v>
+        <v>113.09</v>
       </c>
       <c r="C243" s="1">
-        <v>47619678886</v>
+        <v>47200164318</v>
       </c>
       <c r="D243" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5325,13 +5325,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="1">
-        <v>58.55</v>
+        <v>58.03</v>
       </c>
       <c r="C244" s="1">
-        <v>233224733190</v>
+        <v>232342152143</v>
       </c>
       <c r="D244" s="1">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5339,13 +5339,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="1">
-        <v>411.6</v>
+        <v>400.318</v>
       </c>
       <c r="C245" s="1">
-        <v>116632037185</v>
+        <v>111664631227</v>
       </c>
       <c r="D245" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5353,13 +5353,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="1">
-        <v>59.6</v>
+        <v>60.465</v>
       </c>
       <c r="C246" s="1">
-        <v>23240173506</v>
+        <v>23892489147</v>
       </c>
       <c r="D246" s="1">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5367,13 +5367,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="1">
-        <v>32.39</v>
+        <v>33.424</v>
       </c>
       <c r="C247" s="1">
-        <v>13039375692</v>
+        <v>12955845195</v>
       </c>
       <c r="D247" s="1">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5381,13 +5381,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="1">
-        <v>213.71</v>
+        <v>193.9</v>
       </c>
       <c r="C248" s="1">
-        <v>11517859474</v>
+        <v>10217124231</v>
       </c>
       <c r="D248" s="1">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5395,13 +5395,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="1">
-        <v>239.15</v>
+        <v>238.15</v>
       </c>
       <c r="C249" s="1">
-        <v>46271574585</v>
+        <v>45738390294</v>
       </c>
       <c r="D249" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5409,13 +5409,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="1">
-        <v>49</v>
+        <v>51.33</v>
       </c>
       <c r="C250" s="1">
-        <v>20826554122</v>
+        <v>21349005810</v>
       </c>
       <c r="D250" s="1">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5423,13 +5423,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="1">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C251" s="1">
-        <v>12019165565</v>
+        <v>11666360064</v>
       </c>
       <c r="D251" s="1">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5437,13 +5437,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="1">
-        <v>887.53</v>
+        <v>857.58</v>
       </c>
       <c r="C252" s="1">
-        <v>103558248447</v>
+        <v>100334220170</v>
       </c>
       <c r="D252" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5451,13 +5451,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="1">
-        <v>198.92</v>
+        <v>229.5</v>
       </c>
       <c r="C253" s="1">
-        <v>17416644736</v>
+        <v>20122018684</v>
       </c>
       <c r="D253" s="1">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5465,13 +5465,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="1">
-        <v>235.54</v>
+        <v>238.97</v>
       </c>
       <c r="C254" s="1">
-        <v>75173685230</v>
+        <v>75358514862</v>
       </c>
       <c r="D254" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5479,13 +5479,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="1">
-        <v>28.38</v>
+        <v>27.8</v>
       </c>
       <c r="C255" s="1">
-        <v>13059662483</v>
+        <v>12782255906</v>
       </c>
       <c r="D255" s="1">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5493,13 +5493,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="1">
-        <v>142</v>
+        <v>142.6</v>
       </c>
       <c r="C256" s="1">
-        <v>17681885384</v>
+        <v>18481708950</v>
       </c>
       <c r="D256" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5507,13 +5507,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="1">
-        <v>177.3</v>
+        <v>182.47</v>
       </c>
       <c r="C257" s="1">
-        <v>18429729324</v>
+        <v>19564540432</v>
       </c>
       <c r="D257" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5521,13 +5521,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="1">
-        <v>64.84</v>
+        <v>65.444</v>
       </c>
       <c r="C258" s="1">
-        <v>46366421451</v>
+        <v>46994005679</v>
       </c>
       <c r="D258" s="1">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5535,13 +5535,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="1">
-        <v>172.11</v>
+        <v>165.18</v>
       </c>
       <c r="C259" s="1">
-        <v>12759131285</v>
+        <v>12341584387</v>
       </c>
       <c r="D259" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5549,13 +5549,13 @@
         <v>262</v>
       </c>
       <c r="B260" s="1">
-        <v>172.66</v>
+        <v>174.78</v>
       </c>
       <c r="C260" s="1">
-        <v>454756617472</v>
+        <v>457452798964</v>
       </c>
       <c r="D260" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5563,13 +5563,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="1">
-        <v>26.48</v>
+        <v>26.622</v>
       </c>
       <c r="C261" s="1">
-        <v>8507238160</v>
+        <v>8879251090</v>
       </c>
       <c r="D261" s="1">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5577,10 +5577,10 @@
         <v>264</v>
       </c>
       <c r="B262" s="1">
-        <v>158.4</v>
+        <v>157.4</v>
       </c>
       <c r="C262" s="1">
-        <v>485792010671</v>
+        <v>477452105456</v>
       </c>
       <c r="D262" s="1">
         <v>125</v>
@@ -5591,13 +5591,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="1">
-        <v>65.06999999999999</v>
+        <v>64.81</v>
       </c>
       <c r="C263" s="1">
-        <v>21421203317</v>
+        <v>21253504235</v>
       </c>
       <c r="D263" s="1">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5605,13 +5605,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="1">
-        <v>22</v>
+        <v>22.806</v>
       </c>
       <c r="C264" s="1">
-        <v>21403004272</v>
+        <v>21820697147</v>
       </c>
       <c r="D264" s="1">
-        <v>900</v>
+        <v>868</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5619,13 +5619,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="1">
-        <v>146.2</v>
+        <v>145.36</v>
       </c>
       <c r="C265" s="1">
-        <v>27337083363</v>
+        <v>26620032996</v>
       </c>
       <c r="D265" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5633,13 +5633,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="1">
-        <v>42.2</v>
+        <v>43.28</v>
       </c>
       <c r="C266" s="1">
-        <v>53880509028</v>
+        <v>53672524088</v>
       </c>
       <c r="D266" s="1">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5647,13 +5647,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="1">
-        <v>21.56</v>
+        <v>21.853</v>
       </c>
       <c r="C267" s="1">
-        <v>9491550916</v>
+        <v>9115591786</v>
       </c>
       <c r="D267" s="1">
-        <v>918</v>
+        <v>906</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5661,13 +5661,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="1">
-        <v>313.48</v>
+        <v>316.69</v>
       </c>
       <c r="C268" s="1">
-        <v>49893336271</v>
+        <v>48886348286</v>
       </c>
       <c r="D268" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5675,10 +5675,10 @@
         <v>271</v>
       </c>
       <c r="B269" s="1">
-        <v>137.67</v>
+        <v>137.636</v>
       </c>
       <c r="C269" s="1">
-        <v>46292621660</v>
+        <v>45859490738</v>
       </c>
       <c r="D269" s="1">
         <v>143</v>
@@ -5689,13 +5689,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="1">
-        <v>17.54</v>
+        <v>17.18</v>
       </c>
       <c r="C270" s="1">
-        <v>40063986062</v>
+        <v>40424658126</v>
       </c>
       <c r="D270" s="1">
-        <v>1128</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5703,13 +5703,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="1">
-        <v>140.76</v>
+        <v>143</v>
       </c>
       <c r="C271" s="1">
-        <v>22469227942</v>
+        <v>22726271423</v>
       </c>
       <c r="D271" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5717,13 +5717,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="1">
-        <v>54.98</v>
+        <v>55.649</v>
       </c>
       <c r="C272" s="1">
-        <v>235138249214</v>
+        <v>233330970893</v>
       </c>
       <c r="D272" s="1">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5731,13 +5731,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="1">
-        <v>39.24</v>
+        <v>35.8</v>
       </c>
       <c r="C273" s="1">
-        <v>28563085880</v>
+        <v>27070610865</v>
       </c>
       <c r="D273" s="1">
-        <v>504</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5745,13 +5745,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="1">
-        <v>64.17</v>
+        <v>62.63</v>
       </c>
       <c r="C274" s="1">
-        <v>10158910561</v>
+        <v>9581731144</v>
       </c>
       <c r="D274" s="1">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5759,13 +5759,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="1">
-        <v>306.3</v>
+        <v>299.63</v>
       </c>
       <c r="C275" s="1">
-        <v>27093158081</v>
+        <v>27746585836</v>
       </c>
       <c r="D275" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5773,13 +5773,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="1">
-        <v>59.82</v>
+        <v>59.048</v>
       </c>
       <c r="C276" s="1">
-        <v>15452678870</v>
+        <v>15664124741</v>
       </c>
       <c r="D276" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5787,13 +5787,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="1">
-        <v>70.56999999999999</v>
+        <v>68.92</v>
       </c>
       <c r="C277" s="1">
-        <v>18954097481</v>
+        <v>18651940764</v>
       </c>
       <c r="D277" s="1">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5801,13 +5801,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="1">
-        <v>104.3</v>
+        <v>105.81</v>
       </c>
       <c r="C278" s="1">
-        <v>14909125900</v>
+        <v>15099361136</v>
       </c>
       <c r="D278" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5815,13 +5815,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="1">
-        <v>52.9</v>
+        <v>55.4</v>
       </c>
       <c r="C279" s="1">
-        <v>6861129218</v>
+        <v>7169318029</v>
       </c>
       <c r="D279" s="1">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5829,10 +5829,10 @@
         <v>282</v>
       </c>
       <c r="B280" s="1">
-        <v>110.03</v>
+        <v>110.5</v>
       </c>
       <c r="C280" s="1">
-        <v>32346357022</v>
+        <v>32945579955</v>
       </c>
       <c r="D280" s="1">
         <v>179</v>
@@ -5843,13 +5843,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="1">
-        <v>273.49</v>
+        <v>278.24</v>
       </c>
       <c r="C281" s="1">
-        <v>26236421959</v>
+        <v>26982466073</v>
       </c>
       <c r="D281" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5857,13 +5857,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="1">
-        <v>215.42</v>
+        <v>221.72</v>
       </c>
       <c r="C282" s="1">
-        <v>45335721533</v>
+        <v>46538589557</v>
       </c>
       <c r="D282" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5871,10 +5871,10 @@
         <v>285</v>
       </c>
       <c r="B283" s="1">
-        <v>294.8</v>
+        <v>291.5</v>
       </c>
       <c r="C283" s="1">
-        <v>154982572227</v>
+        <v>147750121100</v>
       </c>
       <c r="D283" s="1">
         <v>67</v>
@@ -5885,13 +5885,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="1">
-        <v>48</v>
+        <v>49.77</v>
       </c>
       <c r="C284" s="1">
-        <v>14708742025</v>
+        <v>15023878061</v>
       </c>
       <c r="D284" s="1">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5899,13 +5899,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="1">
-        <v>192.85</v>
+        <v>195.67</v>
       </c>
       <c r="C285" s="1">
-        <v>186386319709</v>
+        <v>180074501647</v>
       </c>
       <c r="D285" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5913,13 +5913,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="1">
-        <v>398.99</v>
+        <v>387.04</v>
       </c>
       <c r="C286" s="1">
-        <v>112266584746</v>
+        <v>110400057807</v>
       </c>
       <c r="D286" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5927,13 +5927,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="1">
-        <v>64.83</v>
+        <v>65.2</v>
       </c>
       <c r="C287" s="1">
-        <v>12657728458</v>
+        <v>12543494049</v>
       </c>
       <c r="D287" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5941,13 +5941,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="1">
-        <v>56.33</v>
+        <v>58.01</v>
       </c>
       <c r="C288" s="1">
-        <v>14081971470</v>
+        <v>14122065635</v>
       </c>
       <c r="D288" s="1">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5955,13 +5955,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="1">
-        <v>203.4</v>
+        <v>200.062</v>
       </c>
       <c r="C289" s="1">
-        <v>143942459158</v>
+        <v>147464937079</v>
       </c>
       <c r="D289" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5969,10 +5969,10 @@
         <v>292</v>
       </c>
       <c r="B290" s="1">
-        <v>631.8099999999999</v>
+        <v>627.5700000000001</v>
       </c>
       <c r="C290" s="1">
-        <v>91446456602</v>
+        <v>90066304352</v>
       </c>
       <c r="D290" s="1">
         <v>31</v>
@@ -5983,13 +5983,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="1">
-        <v>64.23</v>
+        <v>62.66</v>
       </c>
       <c r="C291" s="1">
-        <v>37792019189</v>
+        <v>36621782170</v>
       </c>
       <c r="D291" s="1">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5997,13 +5997,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="1">
-        <v>62.66</v>
+        <v>60.85</v>
       </c>
       <c r="C292" s="1">
-        <v>48075047503</v>
+        <v>45798938451</v>
       </c>
       <c r="D292" s="1">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6011,13 +6011,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="1">
-        <v>82</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C293" s="1">
-        <v>11934919703</v>
+        <v>11822792581</v>
       </c>
       <c r="D293" s="1">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6025,13 +6025,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="1">
-        <v>110.17</v>
+        <v>112.94</v>
       </c>
       <c r="C294" s="1">
-        <v>36430948250</v>
+        <v>37073256750</v>
       </c>
       <c r="D294" s="1">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6039,13 +6039,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="1">
-        <v>85.22</v>
+        <v>80.81</v>
       </c>
       <c r="C295" s="1">
-        <v>18001901216</v>
+        <v>17482384143</v>
       </c>
       <c r="D295" s="1">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6053,13 +6053,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="1">
-        <v>393.1</v>
+        <v>386.2</v>
       </c>
       <c r="C296" s="1">
-        <v>387181834182</v>
+        <v>380916665198</v>
       </c>
       <c r="D296" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6067,13 +6067,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="1">
-        <v>160.85</v>
+        <v>159.25</v>
       </c>
       <c r="C297" s="1">
-        <v>18665492555</v>
+        <v>18363690770</v>
       </c>
       <c r="D297" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6081,13 +6081,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="1">
-        <v>156.12</v>
+        <v>150.92</v>
       </c>
       <c r="C298" s="1">
-        <v>48598856870</v>
+        <v>49441910112</v>
       </c>
       <c r="D298" s="1">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6095,13 +6095,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="1">
-        <v>65.92</v>
+        <v>66.62</v>
       </c>
       <c r="C299" s="1">
-        <v>17328604099</v>
+        <v>16860425353</v>
       </c>
       <c r="D299" s="1">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6109,13 +6109,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="1">
-        <v>239.67</v>
+        <v>236.36</v>
       </c>
       <c r="C300" s="1">
-        <v>182445119644</v>
+        <v>175153981420</v>
       </c>
       <c r="D300" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6123,13 +6123,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="1">
-        <v>153.48</v>
+        <v>148.525</v>
       </c>
       <c r="C301" s="1">
-        <v>40681884377</v>
+        <v>39507117736</v>
       </c>
       <c r="D301" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6137,13 +6137,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="1">
-        <v>194.39</v>
+        <v>196.69</v>
       </c>
       <c r="C302" s="1">
-        <v>31057301586</v>
+        <v>31288664239</v>
       </c>
       <c r="D302" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6151,13 +6151,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="1">
-        <v>340.99</v>
+        <v>335.12</v>
       </c>
       <c r="C303" s="1">
-        <v>61693476610</v>
+        <v>62835972929</v>
       </c>
       <c r="D303" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6165,13 +6165,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="1">
-        <v>63.57</v>
+        <v>61.38</v>
       </c>
       <c r="C304" s="1">
-        <v>89054945004</v>
+        <v>86892322933</v>
       </c>
       <c r="D304" s="1">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6179,13 +6179,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="1">
-        <v>136.4</v>
+        <v>129.252</v>
       </c>
       <c r="C305" s="1">
-        <v>178496376878</v>
+        <v>174614580028</v>
       </c>
       <c r="D305" s="1">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6193,13 +6193,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="1">
-        <v>67.23999999999999</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="C306" s="1">
-        <v>56470460533</v>
+        <v>57818473723</v>
       </c>
       <c r="D306" s="1">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6207,13 +6207,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="1">
-        <v>41.37</v>
+        <v>42.21</v>
       </c>
       <c r="C307" s="1">
-        <v>20576551549</v>
+        <v>20559687851</v>
       </c>
       <c r="D307" s="1">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6221,13 +6221,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="1">
-        <v>228</v>
+        <v>225.7</v>
       </c>
       <c r="C308" s="1">
-        <v>16008634695</v>
+        <v>15916624698</v>
       </c>
       <c r="D308" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6235,10 +6235,10 @@
         <v>311</v>
       </c>
       <c r="B309" s="1">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C309" s="1">
-        <v>24634168013</v>
+        <v>25103044443</v>
       </c>
       <c r="D309" s="1">
         <v>211</v>
@@ -6249,13 +6249,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="1">
-        <v>511.36</v>
+        <v>478.4</v>
       </c>
       <c r="C310" s="1">
-        <v>19172821131</v>
+        <v>18096970264</v>
       </c>
       <c r="D310" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6263,13 +6263,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="1">
-        <v>358.97</v>
+        <v>378.283</v>
       </c>
       <c r="C311" s="1">
-        <v>22384645128</v>
+        <v>23597680297</v>
       </c>
       <c r="D311" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6277,13 +6277,13 @@
         <v>314</v>
       </c>
       <c r="B312" s="1">
-        <v>140.8</v>
+        <v>138.71</v>
       </c>
       <c r="C312" s="1">
-        <v>71462566928</v>
+        <v>69997901381</v>
       </c>
       <c r="D312" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6291,13 +6291,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="1">
-        <v>205.61</v>
+        <v>206.46</v>
       </c>
       <c r="C313" s="1">
-        <v>116658987970</v>
+        <v>119258074030</v>
       </c>
       <c r="D313" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6305,13 +6305,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="1">
-        <v>98.97</v>
+        <v>97.164</v>
       </c>
       <c r="C314" s="1">
-        <v>52483326982</v>
+        <v>52454415141</v>
       </c>
       <c r="D314" s="1">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6319,13 +6319,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="1">
-        <v>49.69</v>
+        <v>49.104</v>
       </c>
       <c r="C315" s="1">
-        <v>93398168999</v>
+        <v>90099432535</v>
       </c>
       <c r="D315" s="1">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6333,13 +6333,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="1">
-        <v>35.31</v>
+        <v>35.088</v>
       </c>
       <c r="C316" s="1">
-        <v>13523990623</v>
+        <v>13191759900</v>
       </c>
       <c r="D316" s="1">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6347,13 +6347,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="1">
-        <v>59.47</v>
+        <v>59.1</v>
       </c>
       <c r="C317" s="1">
-        <v>38800046158</v>
+        <v>38433412666</v>
       </c>
       <c r="D317" s="1">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6361,13 +6361,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="1">
-        <v>77.75</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C318" s="1">
-        <v>200199091114</v>
+        <v>192956339707</v>
       </c>
       <c r="D318" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6375,13 +6375,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="1">
-        <v>11.44</v>
+        <v>11.7</v>
       </c>
       <c r="C319" s="1">
-        <v>8897689366</v>
+        <v>9174453532</v>
       </c>
       <c r="D319" s="1">
-        <v>1730</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6389,13 +6389,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="1">
-        <v>85.59999999999999</v>
+        <v>85.03</v>
       </c>
       <c r="C320" s="1">
-        <v>161408980752</v>
+        <v>158308672952</v>
       </c>
       <c r="D320" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6403,13 +6403,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="1">
-        <v>509.8</v>
+        <v>497.539</v>
       </c>
       <c r="C321" s="1">
-        <v>41311547708</v>
+        <v>40903712701</v>
       </c>
       <c r="D321" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6417,10 +6417,10 @@
         <v>324</v>
       </c>
       <c r="B322" s="1">
-        <v>260.29</v>
+        <v>257.24</v>
       </c>
       <c r="C322" s="1">
-        <v>1957904013451</v>
+        <v>1867190686144</v>
       </c>
       <c r="D322" s="1">
         <v>76</v>
@@ -6431,13 +6431,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="1">
-        <v>193.59</v>
+        <v>188.4</v>
       </c>
       <c r="C323" s="1">
-        <v>33293596100</v>
+        <v>32021717723</v>
       </c>
       <c r="D323" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6445,10 +6445,10 @@
         <v>326</v>
       </c>
       <c r="B324" s="1">
-        <v>159.7</v>
+        <v>160.54</v>
       </c>
       <c r="C324" s="1">
-        <v>21194607901</v>
+        <v>20830491069</v>
       </c>
       <c r="D324" s="1">
         <v>123</v>
@@ -6459,13 +6459,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="1">
-        <v>1323.85</v>
+        <v>1278</v>
       </c>
       <c r="C325" s="1">
-        <v>30785025199</v>
+        <v>31210927350</v>
       </c>
       <c r="D325" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6473,13 +6473,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="1">
-        <v>86.28</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="C326" s="1">
-        <v>98560899394</v>
+        <v>97605563918</v>
       </c>
       <c r="D326" s="1">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6487,13 +6487,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="1">
-        <v>92.90000000000001</v>
+        <v>93.84</v>
       </c>
       <c r="C327" s="1">
-        <v>26115587490</v>
+        <v>25210699127</v>
       </c>
       <c r="D327" s="1">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6501,13 +6501,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="1">
-        <v>16.02</v>
+        <v>16.1</v>
       </c>
       <c r="C328" s="1">
-        <v>8669658012</v>
+        <v>8931487318</v>
       </c>
       <c r="D328" s="1">
-        <v>1236</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6515,13 +6515,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="1">
-        <v>8.57</v>
+        <v>8.85</v>
       </c>
       <c r="C329" s="1">
-        <v>4158037599</v>
+        <v>4164596204</v>
       </c>
       <c r="D329" s="1">
-        <v>2310</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6529,13 +6529,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="1">
-        <v>31.69</v>
+        <v>30.82</v>
       </c>
       <c r="C330" s="1">
-        <v>7000983741</v>
+        <v>6778380796</v>
       </c>
       <c r="D330" s="1">
-        <v>624</v>
+        <v>642</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6543,13 +6543,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="1">
-        <v>162.98</v>
+        <v>163.9</v>
       </c>
       <c r="C331" s="1">
-        <v>26919283655</v>
+        <v>27351899923</v>
       </c>
       <c r="D331" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6557,13 +6557,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="1">
-        <v>79.3</v>
+        <v>76.39</v>
       </c>
       <c r="C332" s="1">
-        <v>153854867975</v>
+        <v>148106651938</v>
       </c>
       <c r="D332" s="1">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6571,13 +6571,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="1">
-        <v>66.70999999999999</v>
+        <v>65.807</v>
       </c>
       <c r="C333" s="1">
-        <v>52265312681</v>
+        <v>52162482919</v>
       </c>
       <c r="D333" s="1">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6585,13 +6585,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="1">
-        <v>532.59</v>
+        <v>502.17</v>
       </c>
       <c r="C334" s="1">
-        <v>234219107909</v>
+        <v>224728133855</v>
       </c>
       <c r="D334" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6599,13 +6599,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="1">
-        <v>26.8</v>
+        <v>26.212</v>
       </c>
       <c r="C335" s="1">
-        <v>10177090643</v>
+        <v>10542486306</v>
       </c>
       <c r="D335" s="1">
-        <v>738</v>
+        <v>755</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6613,13 +6613,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="1">
-        <v>137.69</v>
+        <v>136.97</v>
       </c>
       <c r="C336" s="1">
-        <v>215716227475</v>
+        <v>215184431084</v>
       </c>
       <c r="D336" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6627,13 +6627,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="1">
-        <v>22.11</v>
+        <v>21.708</v>
       </c>
       <c r="C337" s="1">
-        <v>12995670730</v>
+        <v>12536523647</v>
       </c>
       <c r="D337" s="1">
-        <v>895</v>
+        <v>912</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6641,13 +6641,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="1">
-        <v>26.89</v>
+        <v>26.11</v>
       </c>
       <c r="C338" s="1">
-        <v>9238168408</v>
+        <v>9458798707</v>
       </c>
       <c r="D338" s="1">
-        <v>736</v>
+        <v>758</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6655,13 +6655,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="1">
-        <v>369</v>
+        <v>377.09</v>
       </c>
       <c r="C339" s="1">
-        <v>59421048760</v>
+        <v>61476629663</v>
       </c>
       <c r="D339" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6669,13 +6669,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="1">
-        <v>16.2</v>
+        <v>16.347</v>
       </c>
       <c r="C340" s="1">
-        <v>6511326939</v>
+        <v>6356423042</v>
       </c>
       <c r="D340" s="1">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6683,13 +6683,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="1">
-        <v>512.5700000000001</v>
+        <v>502.79</v>
       </c>
       <c r="C341" s="1">
-        <v>97487982825</v>
+        <v>97759400296</v>
       </c>
       <c r="D341" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6697,13 +6697,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="1">
-        <v>36.51</v>
+        <v>35.8</v>
       </c>
       <c r="C342" s="1">
-        <v>9079083510</v>
+        <v>8876698961</v>
       </c>
       <c r="D342" s="1">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6711,13 +6711,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="1">
-        <v>283.86</v>
+        <v>299.54</v>
       </c>
       <c r="C343" s="1">
-        <v>73419174712</v>
+        <v>75939802761</v>
       </c>
       <c r="D343" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6725,13 +6725,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="1">
-        <v>75.20999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C344" s="1">
-        <v>16754731643</v>
+        <v>16990547328</v>
       </c>
       <c r="D344" s="1">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6739,13 +6739,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="1">
-        <v>118.93</v>
+        <v>116.77</v>
       </c>
       <c r="C345" s="1">
-        <v>24034154798</v>
+        <v>24305581417</v>
       </c>
       <c r="D345" s="1">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6753,13 +6753,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="1">
-        <v>89</v>
+        <v>91.63</v>
       </c>
       <c r="C346" s="1">
-        <v>25854356805</v>
+        <v>27325557769</v>
       </c>
       <c r="D346" s="1">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6767,13 +6767,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="1">
-        <v>600.12</v>
+        <v>570.62</v>
       </c>
       <c r="C347" s="1">
-        <v>375789728760</v>
+        <v>369888930529</v>
       </c>
       <c r="D347" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6781,10 +6781,10 @@
         <v>350</v>
       </c>
       <c r="B348" s="1">
-        <v>5343.27</v>
+        <v>5352.5</v>
       </c>
       <c r="C348" s="1">
-        <v>19194190493</v>
+        <v>18795518191</v>
       </c>
       <c r="D348" s="1">
         <v>3</v>
@@ -6795,13 +6795,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="1">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="C349" s="1">
-        <v>12252091419</v>
+        <v>12119243838</v>
       </c>
       <c r="D349" s="1">
-        <v>712</v>
+        <v>685</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6809,13 +6809,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="1">
-        <v>24.76</v>
+        <v>24.61</v>
       </c>
       <c r="C350" s="1">
-        <v>15333451347</v>
+        <v>15149156367</v>
       </c>
       <c r="D350" s="1">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6823,13 +6823,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="1">
-        <v>26.62</v>
+        <v>26.609</v>
       </c>
       <c r="C351" s="1">
-        <v>15909476921</v>
+        <v>14972682689</v>
       </c>
       <c r="D351" s="1">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6837,13 +6837,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="1">
-        <v>70.88</v>
+        <v>72.16</v>
       </c>
       <c r="C352" s="1">
-        <v>25935619530</v>
+        <v>25844066405</v>
       </c>
       <c r="D352" s="1">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6851,10 +6851,10 @@
         <v>355</v>
       </c>
       <c r="B353" s="1">
-        <v>267.34</v>
+        <v>264.88</v>
       </c>
       <c r="C353" s="1">
-        <v>30854983167</v>
+        <v>31010951094</v>
       </c>
       <c r="D353" s="1">
         <v>74</v>
@@ -6865,10 +6865,10 @@
         <v>356</v>
       </c>
       <c r="B354" s="1">
-        <v>53.59</v>
+        <v>53.602</v>
       </c>
       <c r="C354" s="1">
-        <v>23746448611</v>
+        <v>23892719110</v>
       </c>
       <c r="D354" s="1">
         <v>369</v>
@@ -6879,13 +6879,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="1">
-        <v>87.34999999999999</v>
+        <v>86.825</v>
       </c>
       <c r="C355" s="1">
-        <v>18781814432</v>
+        <v>18873837240</v>
       </c>
       <c r="D355" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6893,13 +6893,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="1">
-        <v>78.64</v>
+        <v>78.5</v>
       </c>
       <c r="C356" s="1">
-        <v>224135212860</v>
+        <v>231225107031</v>
       </c>
       <c r="D356" s="1">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6907,13 +6907,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="1">
-        <v>564.38</v>
+        <v>581.36</v>
       </c>
       <c r="C357" s="1">
-        <v>40147929474</v>
+        <v>40674038440</v>
       </c>
       <c r="D357" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6921,13 +6921,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="1">
-        <v>80.7</v>
+        <v>80.06</v>
       </c>
       <c r="C358" s="1">
-        <v>33875777121</v>
+        <v>35219981738</v>
       </c>
       <c r="D358" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6935,13 +6935,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="1">
-        <v>26.67</v>
+        <v>25.97</v>
       </c>
       <c r="C359" s="1">
-        <v>25199296631</v>
+        <v>24832518677</v>
       </c>
       <c r="D359" s="1">
-        <v>742</v>
+        <v>762</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6949,13 +6949,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="1">
-        <v>391</v>
+        <v>367.28</v>
       </c>
       <c r="C360" s="1">
-        <v>23058106501</v>
+        <v>21570876055</v>
       </c>
       <c r="D360" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6963,13 +6963,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="1">
-        <v>103.42</v>
+        <v>104.55</v>
       </c>
       <c r="C361" s="1">
-        <v>35869306402</v>
+        <v>37480031114</v>
       </c>
       <c r="D361" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6977,13 +6977,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="1">
-        <v>18.49</v>
+        <v>18.99</v>
       </c>
       <c r="C362" s="1">
-        <v>7774017191</v>
+        <v>8247296259</v>
       </c>
       <c r="D362" s="1">
-        <v>1070</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6991,13 +6991,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="1">
-        <v>94.56</v>
+        <v>92.10599999999999</v>
       </c>
       <c r="C363" s="1">
-        <v>32540644706</v>
+        <v>31651808633</v>
       </c>
       <c r="D363" s="1">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -7005,13 +7005,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="1">
-        <v>34.96</v>
+        <v>35.22</v>
       </c>
       <c r="C364" s="1">
-        <v>19121452678</v>
+        <v>18732499644</v>
       </c>
       <c r="D364" s="1">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7019,13 +7019,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="1">
-        <v>64.28</v>
+        <v>64.027</v>
       </c>
       <c r="C365" s="1">
-        <v>33481401825</v>
+        <v>32500392362</v>
       </c>
       <c r="D365" s="1">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7033,13 +7033,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="1">
-        <v>150.62</v>
+        <v>144.18</v>
       </c>
       <c r="C366" s="1">
-        <v>205859868001</v>
+        <v>200439099246</v>
       </c>
       <c r="D366" s="1">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7047,13 +7047,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="1">
-        <v>40.98</v>
+        <v>41.576</v>
       </c>
       <c r="C367" s="1">
-        <v>222873927167</v>
+        <v>224657535717</v>
       </c>
       <c r="D367" s="1">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7061,13 +7061,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="1">
-        <v>64.88</v>
+        <v>66.37</v>
       </c>
       <c r="C368" s="1">
-        <v>18185137228</v>
+        <v>18167624182</v>
       </c>
       <c r="D368" s="1">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7075,13 +7075,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="1">
-        <v>140</v>
+        <v>135.94</v>
       </c>
       <c r="C369" s="1">
-        <v>340718755933</v>
+        <v>343784473923</v>
       </c>
       <c r="D369" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7089,13 +7089,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="1">
-        <v>106.89</v>
+        <v>107.36</v>
       </c>
       <c r="C370" s="1">
-        <v>61208192884</v>
+        <v>62815891657</v>
       </c>
       <c r="D370" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7103,13 +7103,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="1">
-        <v>320.52</v>
+        <v>317.1</v>
       </c>
       <c r="C371" s="1">
-        <v>41155933880</v>
+        <v>40868212035</v>
       </c>
       <c r="D371" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7117,13 +7117,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="1">
-        <v>63.03</v>
+        <v>61.85</v>
       </c>
       <c r="C372" s="1">
-        <v>16005748851</v>
+        <v>16090413037</v>
       </c>
       <c r="D372" s="1">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7131,13 +7131,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="1">
-        <v>152.42</v>
+        <v>157</v>
       </c>
       <c r="C373" s="1">
-        <v>14663221890</v>
+        <v>14836324921</v>
       </c>
       <c r="D373" s="1">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7145,13 +7145,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="1">
-        <v>135.86</v>
+        <v>129.21</v>
       </c>
       <c r="C374" s="1">
-        <v>15239335626</v>
+        <v>14468535082</v>
       </c>
       <c r="D374" s="1">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7159,13 +7159,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="1">
-        <v>118.38</v>
+        <v>119.04</v>
       </c>
       <c r="C375" s="1">
-        <v>86608190878</v>
+        <v>88451706219</v>
       </c>
       <c r="D375" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7173,13 +7173,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="1">
-        <v>100.35</v>
+        <v>97.14</v>
       </c>
       <c r="C376" s="1">
-        <v>156688448243</v>
+        <v>151123156470</v>
       </c>
       <c r="D376" s="1">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7187,13 +7187,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="1">
-        <v>194.93</v>
+        <v>199.1</v>
       </c>
       <c r="C377" s="1">
-        <v>80331260507</v>
+        <v>84591811008</v>
       </c>
       <c r="D377" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7201,13 +7201,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="1">
-        <v>66.09</v>
+        <v>68.5</v>
       </c>
       <c r="C378" s="1">
-        <v>11334391540</v>
+        <v>11117920784</v>
       </c>
       <c r="D378" s="1">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7215,13 +7215,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="1">
-        <v>87.42</v>
+        <v>84.81</v>
       </c>
       <c r="C379" s="1">
-        <v>9885013832</v>
+        <v>9659143793</v>
       </c>
       <c r="D379" s="1">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7229,13 +7229,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="1">
-        <v>180.99</v>
+        <v>187.003</v>
       </c>
       <c r="C380" s="1">
-        <v>41923975133</v>
+        <v>43593346125</v>
       </c>
       <c r="D380" s="1">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7243,13 +7243,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="1">
-        <v>30.01</v>
+        <v>30.329</v>
       </c>
       <c r="C381" s="1">
-        <v>23461049817</v>
+        <v>22594084927</v>
       </c>
       <c r="D381" s="1">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7257,13 +7257,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="1">
-        <v>43.61</v>
+        <v>43.499</v>
       </c>
       <c r="C382" s="1">
-        <v>5805246331</v>
+        <v>5703187323</v>
       </c>
       <c r="D382" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7271,13 +7271,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="1">
-        <v>101.61</v>
+        <v>105.295</v>
       </c>
       <c r="C383" s="1">
-        <v>40783630734</v>
+        <v>40360795670</v>
       </c>
       <c r="D383" s="1">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7285,10 +7285,10 @@
         <v>386</v>
       </c>
       <c r="B384" s="1">
-        <v>279.03</v>
+        <v>281.25</v>
       </c>
       <c r="C384" s="1">
-        <v>49822221871</v>
+        <v>50256072142</v>
       </c>
       <c r="D384" s="1">
         <v>70</v>
@@ -7299,13 +7299,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="1">
-        <v>84.90000000000001</v>
+        <v>82.908</v>
       </c>
       <c r="C385" s="1">
-        <v>38023028567</v>
+        <v>37351712902</v>
       </c>
       <c r="D385" s="1">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7313,13 +7313,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="1">
-        <v>116.69</v>
+        <v>119.676</v>
       </c>
       <c r="C386" s="1">
-        <v>8617743780</v>
+        <v>8339222547</v>
       </c>
       <c r="D386" s="1">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7327,13 +7327,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="1">
-        <v>100.84</v>
+        <v>101.91</v>
       </c>
       <c r="C387" s="1">
-        <v>13694024139</v>
+        <v>13964105735</v>
       </c>
       <c r="D387" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7341,13 +7341,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="1">
-        <v>163.69</v>
+        <v>158.76</v>
       </c>
       <c r="C388" s="1">
-        <v>35372983870</v>
+        <v>35667531601</v>
       </c>
       <c r="D388" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7355,13 +7355,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="1">
-        <v>268.76</v>
+        <v>253.11</v>
       </c>
       <c r="C389" s="1">
-        <v>304339150775</v>
+        <v>296628661817</v>
       </c>
       <c r="D389" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7369,13 +7369,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="1">
-        <v>140.48</v>
+        <v>134.3</v>
       </c>
       <c r="C390" s="1">
-        <v>159803205253</v>
+        <v>152295227878</v>
       </c>
       <c r="D390" s="1">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7383,13 +7383,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="1">
-        <v>189.08</v>
+        <v>182.05</v>
       </c>
       <c r="C391" s="1">
-        <v>21108795592</v>
+        <v>21173727894</v>
       </c>
       <c r="D391" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7397,13 +7397,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="1">
-        <v>91.12</v>
+        <v>86.61</v>
       </c>
       <c r="C392" s="1">
-        <v>22933952025</v>
+        <v>21510508011</v>
       </c>
       <c r="D392" s="1">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7411,13 +7411,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="1">
-        <v>284.23</v>
+        <v>276.873</v>
       </c>
       <c r="C393" s="1">
-        <v>14034465138</v>
+        <v>13634147845</v>
       </c>
       <c r="D393" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7425,13 +7425,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="1">
-        <v>65.92</v>
+        <v>64.282</v>
       </c>
       <c r="C394" s="1">
-        <v>11326430225</v>
+        <v>10927528517</v>
       </c>
       <c r="D394" s="1">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7439,13 +7439,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="1">
-        <v>500.83</v>
+        <v>491.45</v>
       </c>
       <c r="C395" s="1">
-        <v>53472748904</v>
+        <v>51760890556</v>
       </c>
       <c r="D395" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7453,13 +7453,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="1">
-        <v>22.8</v>
+        <v>22.29</v>
       </c>
       <c r="C396" s="1">
-        <v>21785910729</v>
+        <v>21957293432</v>
       </c>
       <c r="D396" s="1">
-        <v>868</v>
+        <v>888</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7467,13 +7467,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="1">
-        <v>87.59</v>
+        <v>92.81</v>
       </c>
       <c r="C397" s="1">
-        <v>10069994460</v>
+        <v>10169798765</v>
       </c>
       <c r="D397" s="1">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7481,10 +7481,10 @@
         <v>400</v>
       </c>
       <c r="B398" s="1">
-        <v>137.16</v>
+        <v>137.399</v>
       </c>
       <c r="C398" s="1">
-        <v>18196092025</v>
+        <v>18967265461</v>
       </c>
       <c r="D398" s="1">
         <v>144</v>
@@ -7495,13 +7495,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="1">
-        <v>136.86</v>
+        <v>135.64</v>
       </c>
       <c r="C399" s="1">
-        <v>9964384763</v>
+        <v>9952292385</v>
       </c>
       <c r="D399" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7509,10 +7509,10 @@
         <v>402</v>
       </c>
       <c r="B400" s="1">
-        <v>197.51</v>
+        <v>196.904</v>
       </c>
       <c r="C400" s="1">
-        <v>29426796039</v>
+        <v>28585311119</v>
       </c>
       <c r="D400" s="1">
         <v>100</v>
@@ -7523,10 +7523,10 @@
         <v>403</v>
       </c>
       <c r="B401" s="1">
-        <v>269.85</v>
+        <v>268.5</v>
       </c>
       <c r="C401" s="1">
-        <v>30518432010</v>
+        <v>31824386741</v>
       </c>
       <c r="D401" s="1">
         <v>73</v>
@@ -7537,10 +7537,10 @@
         <v>404</v>
       </c>
       <c r="B402" s="1">
-        <v>37.77</v>
+        <v>37.733</v>
       </c>
       <c r="C402" s="1">
-        <v>19216412389</v>
+        <v>18570094147</v>
       </c>
       <c r="D402" s="1">
         <v>524</v>
@@ -7551,10 +7551,10 @@
         <v>405</v>
       </c>
       <c r="B403" s="1">
-        <v>453.78</v>
+        <v>458.58</v>
       </c>
       <c r="C403" s="1">
-        <v>48615104250</v>
+        <v>48408790307</v>
       </c>
       <c r="D403" s="1">
         <v>43</v>
@@ -7565,13 +7565,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="1">
-        <v>136.74</v>
+        <v>135.1</v>
       </c>
       <c r="C404" s="1">
-        <v>47483839881</v>
+        <v>48133667974</v>
       </c>
       <c r="D404" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7579,13 +7579,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="1">
-        <v>108.14</v>
+        <v>113.142</v>
       </c>
       <c r="C405" s="1">
-        <v>34480445999</v>
+        <v>35202080423</v>
       </c>
       <c r="D405" s="1">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7593,13 +7593,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="1">
-        <v>86.72</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C406" s="1">
-        <v>127556716374</v>
+        <v>127646423252</v>
       </c>
       <c r="D406" s="1">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7607,13 +7607,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="1">
-        <v>306.9</v>
+        <v>300</v>
       </c>
       <c r="C407" s="1">
-        <v>33592674946</v>
+        <v>33082003640</v>
       </c>
       <c r="D407" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7621,13 +7621,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="1">
-        <v>117.63</v>
+        <v>114.926</v>
       </c>
       <c r="C408" s="1">
-        <v>139071150043</v>
+        <v>135221662629</v>
       </c>
       <c r="D408" s="1">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7635,13 +7635,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="1">
-        <v>73.5</v>
+        <v>70.41</v>
       </c>
       <c r="C409" s="1">
-        <v>139062736632</v>
+        <v>131578575347</v>
       </c>
       <c r="D409" s="1">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7649,13 +7649,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="1">
-        <v>51.21</v>
+        <v>55.14</v>
       </c>
       <c r="C410" s="1">
-        <v>8064607101</v>
+        <v>8757693790</v>
       </c>
       <c r="D410" s="1">
-        <v>386</v>
+        <v>359</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7663,13 +7663,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="1">
-        <v>285.52</v>
+        <v>295.18</v>
       </c>
       <c r="C411" s="1">
-        <v>25766861902</v>
+        <v>26589221878</v>
       </c>
       <c r="D411" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7677,10 +7677,10 @@
         <v>414</v>
       </c>
       <c r="B412" s="1">
-        <v>579.79</v>
+        <v>570.3200000000001</v>
       </c>
       <c r="C412" s="1">
-        <v>29362021530</v>
+        <v>30380135528</v>
       </c>
       <c r="D412" s="1">
         <v>34</v>
@@ -7691,13 +7691,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="1">
-        <v>136.03</v>
+        <v>137.91</v>
       </c>
       <c r="C413" s="1">
-        <v>14494224522</v>
+        <v>14799873576</v>
       </c>
       <c r="D413" s="1">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7705,13 +7705,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="1">
-        <v>28.85</v>
+        <v>28.64</v>
       </c>
       <c r="C414" s="1">
-        <v>41272490413</v>
+        <v>40872912229</v>
       </c>
       <c r="D414" s="1">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7719,13 +7719,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="1">
-        <v>73.34999999999999</v>
+        <v>77.23999999999999</v>
       </c>
       <c r="C415" s="1">
-        <v>5312367369</v>
+        <v>5305428928</v>
       </c>
       <c r="D415" s="1">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7733,13 +7733,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="1">
-        <v>249.84</v>
+        <v>247.137</v>
       </c>
       <c r="C416" s="1">
-        <v>13273981844</v>
+        <v>13468722485</v>
       </c>
       <c r="D416" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7747,13 +7747,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="1">
-        <v>250.52</v>
+        <v>237.17</v>
       </c>
       <c r="C417" s="1">
-        <v>38708454099</v>
+        <v>36347072429</v>
       </c>
       <c r="D417" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7761,13 +7761,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="1">
-        <v>66.65000000000001</v>
+        <v>67.63</v>
       </c>
       <c r="C418" s="1">
-        <v>70717163795</v>
+        <v>73230372834</v>
       </c>
       <c r="D418" s="1">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7775,13 +7775,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="1">
-        <v>127.7</v>
+        <v>126.22</v>
       </c>
       <c r="C419" s="1">
-        <v>41697071283</v>
+        <v>40945799113</v>
       </c>
       <c r="D419" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7789,10 +7789,10 @@
         <v>422</v>
       </c>
       <c r="B420" s="1">
-        <v>401.6</v>
+        <v>400.309</v>
       </c>
       <c r="C420" s="1">
-        <v>96384805564</v>
+        <v>99570278083</v>
       </c>
       <c r="D420" s="1">
         <v>49</v>
@@ -7803,13 +7803,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="1">
-        <v>142.34</v>
+        <v>139.74</v>
       </c>
       <c r="C421" s="1">
-        <v>41792024587</v>
+        <v>42158089211</v>
       </c>
       <c r="D421" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7817,13 +7817,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="1">
-        <v>222.35</v>
+        <v>212.38</v>
       </c>
       <c r="C422" s="1">
-        <v>18315620988</v>
+        <v>18255220223</v>
       </c>
       <c r="D422" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7831,13 +7831,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="1">
-        <v>85.28</v>
+        <v>84.77800000000001</v>
       </c>
       <c r="C423" s="1">
-        <v>30128291060</v>
+        <v>30335081103</v>
       </c>
       <c r="D423" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7845,13 +7845,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="1">
-        <v>95.5</v>
+        <v>88.76000000000001</v>
       </c>
       <c r="C424" s="1">
-        <v>21853523844</v>
+        <v>20714121823</v>
       </c>
       <c r="D424" s="1">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7859,13 +7859,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="1">
-        <v>252.4</v>
+        <v>247.58</v>
       </c>
       <c r="C425" s="1">
-        <v>47244187606</v>
+        <v>47556534839</v>
       </c>
       <c r="D425" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7873,13 +7873,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="1">
-        <v>219.25</v>
+        <v>220.31</v>
       </c>
       <c r="C426" s="1">
-        <v>34620179067</v>
+        <v>34278315335</v>
       </c>
       <c r="D426" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7887,13 +7887,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="1">
-        <v>182.93</v>
+        <v>174.41</v>
       </c>
       <c r="C427" s="1">
-        <v>30225019035</v>
+        <v>28608892097</v>
       </c>
       <c r="D427" s="1">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7901,13 +7901,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="1">
-        <v>43.74</v>
+        <v>46.26</v>
       </c>
       <c r="C428" s="1">
-        <v>26646340933</v>
+        <v>27031088751</v>
       </c>
       <c r="D428" s="1">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7915,13 +7915,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="1">
-        <v>272</v>
+        <v>255.73</v>
       </c>
       <c r="C429" s="1">
-        <v>99247386592</v>
+        <v>99465789001</v>
       </c>
       <c r="D429" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7929,13 +7929,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="1">
-        <v>84.76000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="C430" s="1">
-        <v>44931489821</v>
+        <v>43113524788</v>
       </c>
       <c r="D430" s="1">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7943,13 +7943,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="1">
-        <v>32.1</v>
+        <v>32.41</v>
       </c>
       <c r="C431" s="1">
-        <v>231013021861</v>
+        <v>236295523081</v>
       </c>
       <c r="D431" s="1">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7957,13 +7957,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="1">
-        <v>57.74</v>
+        <v>56.596</v>
       </c>
       <c r="C432" s="1">
-        <v>12616599872</v>
+        <v>12674703191</v>
       </c>
       <c r="D432" s="1">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7971,13 +7971,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="1">
-        <v>634.01</v>
+        <v>601.54</v>
       </c>
       <c r="C433" s="1">
-        <v>34494849266</v>
+        <v>33608654745</v>
       </c>
       <c r="D433" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7985,10 +7985,10 @@
         <v>436</v>
       </c>
       <c r="B434" s="1">
-        <v>444.1</v>
+        <v>449.16</v>
       </c>
       <c r="C434" s="1">
-        <v>17094336250</v>
+        <v>16746838560</v>
       </c>
       <c r="D434" s="1">
         <v>44</v>
@@ -7999,13 +7999,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="1">
-        <v>138.21</v>
+        <v>133.81</v>
       </c>
       <c r="C435" s="1">
-        <v>44476408123</v>
+        <v>44538662904</v>
       </c>
       <c r="D435" s="1">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8013,13 +8013,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="1">
-        <v>61.97</v>
+        <v>61.368</v>
       </c>
       <c r="C436" s="1">
-        <v>81882961736</v>
+        <v>81086142979</v>
       </c>
       <c r="D436" s="1">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8027,13 +8027,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="1">
-        <v>420.53</v>
+        <v>431.19</v>
       </c>
       <c r="C437" s="1">
-        <v>20276151199</v>
+        <v>19383950667</v>
       </c>
       <c r="D437" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8041,13 +8041,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="1">
-        <v>221.4</v>
+        <v>214.9</v>
       </c>
       <c r="C438" s="1">
-        <v>107730371107</v>
+        <v>107811002973</v>
       </c>
       <c r="D438" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8055,13 +8055,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="1">
-        <v>133.31</v>
+        <v>136.04</v>
       </c>
       <c r="C439" s="1">
-        <v>16066024329</v>
+        <v>16513604076</v>
       </c>
       <c r="D439" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8069,13 +8069,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="1">
-        <v>75.55</v>
+        <v>73.59</v>
       </c>
       <c r="C440" s="1">
-        <v>89008800560</v>
+        <v>89281404756</v>
       </c>
       <c r="D440" s="1">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8083,10 +8083,10 @@
         <v>443</v>
       </c>
       <c r="B441" s="1">
-        <v>481.81</v>
+        <v>478.54</v>
       </c>
       <c r="C441" s="1">
-        <v>186981464760</v>
+        <v>183966543529</v>
       </c>
       <c r="D441" s="1">
         <v>41</v>
@@ -8097,13 +8097,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="1">
-        <v>132.49</v>
+        <v>134.3</v>
       </c>
       <c r="C442" s="1">
-        <v>168659975254</v>
+        <v>164694136318</v>
       </c>
       <c r="D442" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8111,13 +8111,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="1">
-        <v>48.85</v>
+        <v>48.707</v>
       </c>
       <c r="C443" s="1">
-        <v>14004524824</v>
+        <v>13404064534</v>
       </c>
       <c r="D443" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8125,13 +8125,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="1">
-        <v>190.1</v>
+        <v>184.47</v>
       </c>
       <c r="C444" s="1">
-        <v>42801144321</v>
+        <v>42031238366</v>
       </c>
       <c r="D444" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8139,13 +8139,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="1">
-        <v>163.88</v>
+        <v>159.016</v>
       </c>
       <c r="C445" s="1">
-        <v>39737366011</v>
+        <v>40369894266</v>
       </c>
       <c r="D445" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8153,10 +8153,10 @@
         <v>448</v>
       </c>
       <c r="B446" s="1">
-        <v>201.66</v>
+        <v>201.94</v>
       </c>
       <c r="C446" s="1">
-        <v>22924238655</v>
+        <v>23275783723</v>
       </c>
       <c r="D446" s="1">
         <v>98</v>
@@ -8167,13 +8167,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="1">
-        <v>80.3</v>
+        <v>80.98</v>
       </c>
       <c r="C447" s="1">
-        <v>29121238278</v>
+        <v>28908801184</v>
       </c>
       <c r="D447" s="1">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8181,10 +8181,10 @@
         <v>450</v>
       </c>
       <c r="B448" s="1">
-        <v>182.85</v>
+        <v>182.73</v>
       </c>
       <c r="C448" s="1">
-        <v>43732243597</v>
+        <v>43065212975</v>
       </c>
       <c r="D448" s="1">
         <v>108</v>
@@ -8195,13 +8195,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="1">
-        <v>177</v>
+        <v>173.65</v>
       </c>
       <c r="C449" s="1">
-        <v>19997743768</v>
+        <v>20059872529</v>
       </c>
       <c r="D449" s="1">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8209,13 +8209,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="1">
-        <v>56.74</v>
+        <v>54.677</v>
       </c>
       <c r="C450" s="1">
-        <v>44599413535</v>
+        <v>44430040091</v>
       </c>
       <c r="D450" s="1">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8223,13 +8223,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="1">
-        <v>180.954</v>
+        <v>179.66</v>
       </c>
       <c r="C451" s="1">
-        <v>165377741480</v>
+        <v>164795774020</v>
       </c>
       <c r="D451" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8237,13 +8237,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="1">
-        <v>67.36</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C452" s="1">
-        <v>15249548548</v>
+        <v>15105594801</v>
       </c>
       <c r="D452" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8251,13 +8251,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="1">
-        <v>432.45</v>
+        <v>420.9</v>
       </c>
       <c r="C453" s="1">
-        <v>17456438433</v>
+        <v>17400317769</v>
       </c>
       <c r="D453" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8265,13 +8265,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="1">
-        <v>20.35</v>
+        <v>19.93</v>
       </c>
       <c r="C454" s="1">
-        <v>10811630321</v>
+        <v>10223212295</v>
       </c>
       <c r="D454" s="1">
-        <v>973</v>
+        <v>993</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8279,13 +8279,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="1">
-        <v>24.91</v>
+        <v>24.094</v>
       </c>
       <c r="C455" s="1">
-        <v>10779842161</v>
+        <v>10609875401</v>
       </c>
       <c r="D455" s="1">
-        <v>794</v>
+        <v>821</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8293,13 +8293,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="1">
-        <v>55.57</v>
+        <v>53.08</v>
       </c>
       <c r="C456" s="1">
-        <v>18490006081</v>
+        <v>17213475095</v>
       </c>
       <c r="D456" s="1">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8307,13 +8307,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="1">
-        <v>47.26</v>
+        <v>47.37</v>
       </c>
       <c r="C457" s="1">
-        <v>14364154203</v>
+        <v>13815354031</v>
       </c>
       <c r="D457" s="1">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8321,10 +8321,10 @@
         <v>460</v>
       </c>
       <c r="B458" s="1">
-        <v>154.42</v>
+        <v>153.707</v>
       </c>
       <c r="C458" s="1">
-        <v>12960073854</v>
+        <v>13451916580</v>
       </c>
       <c r="D458" s="1">
         <v>128</v>
@@ -8335,10 +8335,10 @@
         <v>461</v>
       </c>
       <c r="B459" s="1">
-        <v>330.39</v>
+        <v>330.52</v>
       </c>
       <c r="C459" s="1">
-        <v>18592443873</v>
+        <v>18125179597</v>
       </c>
       <c r="D459" s="1">
         <v>59</v>
@@ -8349,13 +8349,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="1">
-        <v>420.2</v>
+        <v>430.568</v>
       </c>
       <c r="C460" s="1">
-        <v>398322529917</v>
+        <v>395968040142</v>
       </c>
       <c r="D460" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8363,13 +8363,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="1">
-        <v>28.98</v>
+        <v>29.39</v>
       </c>
       <c r="C461" s="1">
-        <v>6091753413</v>
+        <v>6079572293</v>
       </c>
       <c r="D461" s="1">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8377,13 +8377,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="1">
-        <v>233.21</v>
+        <v>232.66</v>
       </c>
       <c r="C462" s="1">
-        <v>150031896991</v>
+        <v>154999518310</v>
       </c>
       <c r="D462" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8391,13 +8391,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="1">
-        <v>221.8</v>
+        <v>223.23</v>
       </c>
       <c r="C463" s="1">
-        <v>186316588519</v>
+        <v>190466164913</v>
       </c>
       <c r="D463" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8405,13 +8405,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="1">
-        <v>334.2</v>
+        <v>341.646</v>
       </c>
       <c r="C464" s="1">
-        <v>24324517769</v>
+        <v>24155394125</v>
       </c>
       <c r="D464" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8419,13 +8419,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="1">
-        <v>59.79</v>
+        <v>61.82</v>
       </c>
       <c r="C465" s="1">
-        <v>93479164765</v>
+        <v>94857381479</v>
       </c>
       <c r="D465" s="1">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8433,13 +8433,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="1">
-        <v>241.05</v>
+        <v>238.37</v>
       </c>
       <c r="C466" s="1">
-        <v>527486740269</v>
+        <v>529228505380</v>
       </c>
       <c r="D466" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8447,13 +8447,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="1">
-        <v>181.34</v>
+        <v>182.03</v>
       </c>
       <c r="C467" s="1">
-        <v>16777352462</v>
+        <v>16899735363</v>
       </c>
       <c r="D467" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8461,13 +8461,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="1">
-        <v>91.97</v>
+        <v>93.11</v>
       </c>
       <c r="C468" s="1">
-        <v>35512947127</v>
+        <v>36720702013</v>
       </c>
       <c r="D468" s="1">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8475,13 +8475,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="1">
-        <v>40.65</v>
+        <v>39.969</v>
       </c>
       <c r="C469" s="1">
-        <v>26082574048</v>
+        <v>26623931935</v>
       </c>
       <c r="D469" s="1">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8489,13 +8489,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="1">
-        <v>79.86</v>
+        <v>79.37</v>
       </c>
       <c r="C470" s="1">
-        <v>32145038545</v>
+        <v>33261339926</v>
       </c>
       <c r="D470" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8503,13 +8503,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="1">
-        <v>187.14</v>
+        <v>191.1</v>
       </c>
       <c r="C471" s="1">
-        <v>24751974099</v>
+        <v>24992555676</v>
       </c>
       <c r="D471" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8517,13 +8517,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="1">
-        <v>46.98</v>
+        <v>48.86</v>
       </c>
       <c r="C472" s="1">
-        <v>8950231367</v>
+        <v>9254508469</v>
       </c>
       <c r="D472" s="1">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8531,13 +8531,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="1">
-        <v>191.32</v>
+        <v>189.101</v>
       </c>
       <c r="C473" s="1">
-        <v>31904213121</v>
+        <v>30828398397</v>
       </c>
       <c r="D473" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8545,13 +8545,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="1">
-        <v>228.79</v>
+        <v>219.379</v>
       </c>
       <c r="C474" s="1">
-        <v>25560979944</v>
+        <v>25703086234</v>
       </c>
       <c r="D474" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8559,13 +8559,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="1">
-        <v>223.29</v>
+        <v>214.47</v>
       </c>
       <c r="C475" s="1">
-        <v>58358230834</v>
+        <v>57163928989</v>
       </c>
       <c r="D475" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8573,13 +8573,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="1">
-        <v>56.02</v>
+        <v>57.5</v>
       </c>
       <c r="C476" s="1">
-        <v>21111282978</v>
+        <v>21325203910</v>
       </c>
       <c r="D476" s="1">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8587,13 +8587,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="1">
-        <v>58.5</v>
+        <v>60.5</v>
       </c>
       <c r="C477" s="1">
-        <v>240272896300</v>
+        <v>246121540900</v>
       </c>
       <c r="D477" s="1">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8601,13 +8601,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="1">
-        <v>83.48999999999999</v>
+        <v>82</v>
       </c>
       <c r="C478" s="1">
-        <v>15384772107</v>
+        <v>15559580327</v>
       </c>
       <c r="D478" s="1">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8615,13 +8615,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="1">
-        <v>314.46</v>
+        <v>309.61</v>
       </c>
       <c r="C479" s="1">
-        <v>19465288914</v>
+        <v>19075185830</v>
       </c>
       <c r="D479" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8629,13 +8629,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="1">
-        <v>56</v>
+        <v>55.4</v>
       </c>
       <c r="C480" s="1">
-        <v>47474866977</v>
+        <v>47359255569</v>
       </c>
       <c r="D480" s="1">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8643,13 +8643,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="1">
-        <v>70.73</v>
+        <v>67.12</v>
       </c>
       <c r="C481" s="1">
-        <v>22114692044</v>
+        <v>20877058515</v>
       </c>
       <c r="D481" s="1">
-        <v>279</v>
+        <v>295</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8657,13 +8657,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="1">
-        <v>101</v>
+        <v>101.118</v>
       </c>
       <c r="C482" s="1">
-        <v>31234271878</v>
+        <v>30987746542</v>
       </c>
       <c r="D482" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8671,13 +8671,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="1">
-        <v>79.34</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C483" s="1">
-        <v>33239544429</v>
+        <v>31618910060</v>
       </c>
       <c r="D483" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8685,13 +8685,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="1">
-        <v>45.57</v>
+        <v>46.245</v>
       </c>
       <c r="C484" s="1">
-        <v>192355431096</v>
+        <v>195292266502</v>
       </c>
       <c r="D484" s="1">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8699,13 +8699,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="1">
-        <v>252.24</v>
+        <v>250.2</v>
       </c>
       <c r="C485" s="1">
-        <v>15340039956</v>
+        <v>15722272945</v>
       </c>
       <c r="D485" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8713,13 +8713,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="1">
-        <v>264.55</v>
+        <v>268.9</v>
       </c>
       <c r="C486" s="1">
-        <v>34997037834</v>
+        <v>34647944301</v>
       </c>
       <c r="D486" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8727,13 +8727,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="1">
-        <v>146.36</v>
+        <v>141.85</v>
       </c>
       <c r="C487" s="1">
-        <v>61006386390</v>
+        <v>60714437649</v>
       </c>
       <c r="D487" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8741,13 +8741,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="1">
-        <v>25.08</v>
+        <v>25.134</v>
       </c>
       <c r="C488" s="1">
-        <v>30462392743</v>
+        <v>30718591959</v>
       </c>
       <c r="D488" s="1">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8755,13 +8755,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="1">
-        <v>145.31</v>
+        <v>146.65</v>
       </c>
       <c r="C489" s="1">
-        <v>404902548152</v>
+        <v>395736522448</v>
       </c>
       <c r="D489" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8769,13 +8769,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="1">
-        <v>82.65000000000001</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="C490" s="1">
-        <v>14934108513</v>
+        <v>15460588800</v>
       </c>
       <c r="D490" s="1">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8783,13 +8783,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="1">
-        <v>58.07</v>
+        <v>58.21</v>
       </c>
       <c r="C491" s="1">
-        <v>15426344187</v>
+        <v>15727738522</v>
       </c>
       <c r="D491" s="1">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8797,13 +8797,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="1">
-        <v>340.84</v>
+        <v>331.37</v>
       </c>
       <c r="C492" s="1">
-        <v>24919422879</v>
+        <v>24786811338</v>
       </c>
       <c r="D492" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8811,13 +8811,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="1">
-        <v>25.76</v>
+        <v>26.7</v>
       </c>
       <c r="C493" s="1">
-        <v>10562142161</v>
+        <v>11021088590</v>
       </c>
       <c r="D493" s="1">
-        <v>768</v>
+        <v>741</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8825,13 +8825,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="1">
-        <v>40.61</v>
+        <v>40.5</v>
       </c>
       <c r="C494" s="1">
-        <v>29752041586</v>
+        <v>29347344245</v>
       </c>
       <c r="D494" s="1">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8839,13 +8839,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="1">
-        <v>130.05</v>
+        <v>127.87</v>
       </c>
       <c r="C495" s="1">
-        <v>15215187903</v>
+        <v>14771322417</v>
       </c>
       <c r="D495" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8853,13 +8853,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="1">
-        <v>73.15000000000001</v>
+        <v>73.47</v>
       </c>
       <c r="C496" s="1">
-        <v>40147353446</v>
+        <v>39311658106</v>
       </c>
       <c r="D496" s="1">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8867,13 +8867,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="1">
-        <v>123.57</v>
+        <v>125.71</v>
       </c>
       <c r="C497" s="1">
-        <v>30440240865</v>
+        <v>30137341344</v>
       </c>
       <c r="D497" s="1">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8881,13 +8881,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="1">
-        <v>61.49</v>
+        <v>60.92</v>
       </c>
       <c r="C498" s="1">
-        <v>257639209356</v>
+        <v>251388420065</v>
       </c>
       <c r="D498" s="1">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8895,13 +8895,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="1">
-        <v>68.88</v>
+        <v>71.33</v>
       </c>
       <c r="C499" s="1">
-        <v>15278722047</v>
+        <v>15531094902</v>
       </c>
       <c r="D499" s="1">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8909,13 +8909,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="1">
-        <v>25.3</v>
+        <v>24.074</v>
       </c>
       <c r="C500" s="1">
-        <v>4896766941</v>
+        <v>4821556430</v>
       </c>
       <c r="D500" s="1">
-        <v>782</v>
+        <v>822</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8923,13 +8923,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="1">
-        <v>112.7</v>
+        <v>117.3</v>
       </c>
       <c r="C501" s="1">
-        <v>20493617714</v>
+        <v>21857629864</v>
       </c>
       <c r="D501" s="1">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8937,13 +8937,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="1">
-        <v>121.71</v>
+        <v>121.279</v>
       </c>
       <c r="C502" s="1">
-        <v>37199826309</v>
+        <v>37255397228</v>
       </c>
       <c r="D502" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8951,13 +8951,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="1">
-        <v>178.22</v>
+        <v>180.3</v>
       </c>
       <c r="C503" s="1">
-        <v>38615750338</v>
+        <v>37481352072</v>
       </c>
       <c r="D503" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8965,10 +8965,10 @@
         <v>506</v>
       </c>
       <c r="B504" s="1">
-        <v>480.79</v>
+        <v>475.21</v>
       </c>
       <c r="C504" s="1">
-        <v>25749394715</v>
+        <v>25809472070</v>
       </c>
       <c r="D504" s="1">
         <v>41</v>
@@ -8979,13 +8979,13 @@
         <v>507</v>
       </c>
       <c r="B505" s="1">
-        <v>56.348</v>
+        <v>59</v>
       </c>
       <c r="C505" s="1">
-        <v>9504362669</v>
+        <v>9534972399</v>
       </c>
       <c r="D505" s="1">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -8993,10 +8993,10 @@
         <v>508</v>
       </c>
       <c r="B506" s="1">
-        <v>178.09</v>
+        <v>177.23</v>
       </c>
       <c r="C506" s="1">
-        <v>84327839348</v>
+        <v>84560474342</v>
       </c>
       <c r="D506" s="1">
         <v>111</v>
